--- a/Cobrança autônomo (Para copiar).xlsx
+++ b/Cobrança autônomo (Para copiar).xlsx
@@ -115,18 +115,7 @@
       <t xml:space="preserve">Montamos essa planilha para todos aqueles que trabalham como freelancer.
 Sugestões e feedbacks são bem-vindos.
 Autores:
-Andreas Andrade - </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Linkedin</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> - Email
+Andreas Andrade
 Igor Nascimento - </t>
     </r>
     <r>
@@ -145,7 +134,8 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>Email</t>
+      <t>Email
+Github do projeto</t>
     </r>
   </si>
   <si>
@@ -3788,7 +3778,7 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:J7"/>
     <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F21:J24"/>
+    <mergeCell ref="F21:J25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F21"/>

--- a/Cobrança autônomo (Para copiar).xlsx
+++ b/Cobrança autônomo (Para copiar).xlsx
@@ -59,28 +59,11 @@
     <t>Transporte</t>
   </si>
   <si>
-    <t>Adobe</t>
-  </si>
-  <si>
-    <t>Google Drive</t>
-  </si>
-  <si>
-    <t>Pets</t>
-  </si>
-  <si>
-    <t>Seguro</t>
-  </si>
-  <si>
-    <t>Impostos</t>
-  </si>
-  <si>
-    <t>Emergência</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Para utilizar basta clicar em </t>
     </r>
@@ -89,6 +72,7 @@
         <rFont val="Calibri"/>
         <b/>
         <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>Arquivo</t>
     </r>
@@ -96,6 +80,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> no canto superior esquerdo
  e depois em </t>
@@ -105,9 +90,16 @@
         <rFont val="Calibri"/>
         <b/>
         <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>Fazer um cópia</t>
     </r>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
   </si>
   <si>
     <r>
@@ -139,6 +131,18 @@
     </r>
   </si>
   <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Seguro</t>
+  </si>
+  <si>
+    <t>Impostos</t>
+  </si>
+  <si>
+    <t>Emergência</t>
+  </si>
+  <si>
     <t>Total custo mensal</t>
   </si>
   <si>
@@ -161,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -176,13 +180,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -204,6 +208,12 @@
       <b/>
       <sz val="26.0"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -273,8 +283,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -286,14 +310,14 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -302,7 +326,7 @@
     <xf borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -320,21 +344,21 @@
     <xf borderId="0" fillId="7" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -344,7 +368,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -592,16 +616,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="2"/>
-    </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
         <v>3</v>
       </c>
@@ -613,6 +636,7 @@
       <c r="B6" s="7">
         <v>1000.0</v>
       </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
@@ -622,6 +646,7 @@
       <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="10" t="s">
         <v>7</v>
       </c>
@@ -637,6 +662,7 @@
       <c r="B7" s="13">
         <v>100.0</v>
       </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
@@ -646,6 +672,7 @@
       <c r="F7" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
@@ -654,6 +681,14 @@
       <c r="B8" s="7">
         <v>100.0</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
@@ -662,9 +697,14 @@
       <c r="B9" s="13">
         <v>50.0</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
@@ -673,9 +713,14 @@
       <c r="B10" s="7">
         <v>200.0</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
@@ -684,291 +729,728 @@
       <c r="B11" s="13">
         <v>200.0</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7">
         <v>76.0</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="13">
         <v>38.0</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="7">
         <v>50.0</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="C14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="13">
         <v>250.0</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="7">
         <v>81.0</v>
       </c>
+      <c r="C16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="13">
         <v>200.0</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="C17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="F21" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="6"/>
@@ -1003,2785 +1485,2786 @@
       <c r="B79" s="13"/>
     </row>
     <row r="80">
-      <c r="A80" s="17"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
     </row>
     <row r="81">
-      <c r="B81" s="2"/>
+      <c r="B81" s="20"/>
     </row>
     <row r="82">
-      <c r="B82" s="2"/>
+      <c r="B82" s="20"/>
     </row>
     <row r="83">
-      <c r="B83" s="2"/>
+      <c r="B83" s="20"/>
     </row>
     <row r="84">
-      <c r="B84" s="2"/>
+      <c r="B84" s="20"/>
     </row>
     <row r="85">
-      <c r="B85" s="2"/>
+      <c r="B85" s="20"/>
     </row>
     <row r="86">
-      <c r="B86" s="2"/>
+      <c r="B86" s="20"/>
     </row>
     <row r="87">
-      <c r="B87" s="2"/>
+      <c r="B87" s="20"/>
     </row>
     <row r="88">
-      <c r="B88" s="2"/>
+      <c r="B88" s="20"/>
     </row>
     <row r="89">
-      <c r="B89" s="2"/>
+      <c r="B89" s="20"/>
     </row>
     <row r="90">
-      <c r="B90" s="2"/>
+      <c r="B90" s="20"/>
     </row>
     <row r="91">
-      <c r="B91" s="2"/>
+      <c r="B91" s="20"/>
     </row>
     <row r="92">
-      <c r="B92" s="2"/>
+      <c r="B92" s="20"/>
     </row>
     <row r="93">
-      <c r="B93" s="2"/>
+      <c r="B93" s="20"/>
     </row>
     <row r="94">
-      <c r="B94" s="2"/>
+      <c r="B94" s="20"/>
     </row>
     <row r="95">
-      <c r="B95" s="2"/>
+      <c r="B95" s="20"/>
     </row>
     <row r="96">
-      <c r="B96" s="2"/>
+      <c r="B96" s="20"/>
     </row>
     <row r="97">
-      <c r="B97" s="2"/>
+      <c r="B97" s="20"/>
     </row>
     <row r="98">
-      <c r="B98" s="2"/>
+      <c r="B98" s="20"/>
     </row>
     <row r="99">
-      <c r="B99" s="2"/>
+      <c r="B99" s="20"/>
     </row>
     <row r="100">
-      <c r="B100" s="2"/>
+      <c r="B100" s="20"/>
     </row>
     <row r="101">
-      <c r="B101" s="2"/>
+      <c r="B101" s="20"/>
     </row>
     <row r="102">
-      <c r="B102" s="2"/>
+      <c r="B102" s="20"/>
     </row>
     <row r="103">
-      <c r="B103" s="2"/>
+      <c r="B103" s="20"/>
     </row>
     <row r="104">
-      <c r="B104" s="2"/>
+      <c r="B104" s="20"/>
     </row>
     <row r="105">
-      <c r="B105" s="2"/>
+      <c r="B105" s="20"/>
     </row>
     <row r="106">
-      <c r="B106" s="2"/>
+      <c r="B106" s="20"/>
     </row>
     <row r="107">
-      <c r="B107" s="2"/>
+      <c r="B107" s="20"/>
     </row>
     <row r="108">
-      <c r="B108" s="2"/>
+      <c r="B108" s="20"/>
     </row>
     <row r="109">
-      <c r="B109" s="2"/>
+      <c r="B109" s="20"/>
     </row>
     <row r="110">
-      <c r="B110" s="2"/>
+      <c r="B110" s="20"/>
     </row>
     <row r="111">
-      <c r="B111" s="2"/>
+      <c r="B111" s="20"/>
     </row>
     <row r="112">
-      <c r="B112" s="2"/>
+      <c r="B112" s="20"/>
     </row>
     <row r="113">
-      <c r="B113" s="2"/>
+      <c r="B113" s="20"/>
     </row>
     <row r="114">
-      <c r="B114" s="2"/>
+      <c r="B114" s="20"/>
     </row>
     <row r="115">
-      <c r="B115" s="2"/>
+      <c r="B115" s="20"/>
     </row>
     <row r="116">
-      <c r="B116" s="2"/>
+      <c r="B116" s="20"/>
     </row>
     <row r="117">
-      <c r="B117" s="2"/>
+      <c r="B117" s="20"/>
     </row>
     <row r="118">
-      <c r="B118" s="2"/>
+      <c r="B118" s="20"/>
     </row>
     <row r="119">
-      <c r="B119" s="2"/>
+      <c r="B119" s="20"/>
     </row>
     <row r="120">
-      <c r="B120" s="2"/>
+      <c r="B120" s="20"/>
     </row>
     <row r="121">
-      <c r="B121" s="2"/>
+      <c r="B121" s="20"/>
     </row>
     <row r="122">
-      <c r="B122" s="2"/>
+      <c r="B122" s="20"/>
     </row>
     <row r="123">
-      <c r="B123" s="2"/>
+      <c r="B123" s="20"/>
     </row>
     <row r="124">
-      <c r="B124" s="2"/>
+      <c r="B124" s="20"/>
     </row>
     <row r="125">
-      <c r="B125" s="2"/>
+      <c r="B125" s="20"/>
     </row>
     <row r="126">
-      <c r="B126" s="2"/>
+      <c r="B126" s="20"/>
     </row>
     <row r="127">
-      <c r="B127" s="2"/>
+      <c r="B127" s="20"/>
     </row>
     <row r="128">
-      <c r="B128" s="2"/>
+      <c r="B128" s="20"/>
     </row>
     <row r="129">
-      <c r="B129" s="2"/>
+      <c r="B129" s="20"/>
     </row>
     <row r="130">
-      <c r="B130" s="2"/>
+      <c r="B130" s="20"/>
     </row>
     <row r="131">
-      <c r="B131" s="2"/>
+      <c r="B131" s="20"/>
     </row>
     <row r="132">
-      <c r="B132" s="2"/>
+      <c r="B132" s="20"/>
     </row>
     <row r="133">
-      <c r="B133" s="2"/>
+      <c r="B133" s="20"/>
     </row>
     <row r="134">
-      <c r="B134" s="2"/>
+      <c r="B134" s="20"/>
     </row>
     <row r="135">
-      <c r="B135" s="2"/>
+      <c r="B135" s="20"/>
     </row>
     <row r="136">
-      <c r="B136" s="2"/>
+      <c r="B136" s="20"/>
     </row>
     <row r="137">
-      <c r="B137" s="2"/>
+      <c r="B137" s="20"/>
     </row>
     <row r="138">
-      <c r="B138" s="2"/>
+      <c r="B138" s="20"/>
     </row>
     <row r="139">
-      <c r="B139" s="2"/>
+      <c r="B139" s="20"/>
     </row>
     <row r="140">
-      <c r="B140" s="2"/>
+      <c r="B140" s="20"/>
     </row>
     <row r="141">
-      <c r="B141" s="2"/>
+      <c r="B141" s="20"/>
     </row>
     <row r="142">
-      <c r="B142" s="2"/>
+      <c r="B142" s="20"/>
     </row>
     <row r="143">
-      <c r="B143" s="2"/>
+      <c r="B143" s="20"/>
     </row>
     <row r="144">
-      <c r="B144" s="2"/>
+      <c r="B144" s="20"/>
     </row>
     <row r="145">
-      <c r="B145" s="2"/>
+      <c r="B145" s="20"/>
     </row>
     <row r="146">
-      <c r="B146" s="2"/>
+      <c r="B146" s="20"/>
     </row>
     <row r="147">
-      <c r="B147" s="2"/>
+      <c r="B147" s="20"/>
     </row>
     <row r="148">
-      <c r="B148" s="2"/>
+      <c r="B148" s="20"/>
     </row>
     <row r="149">
-      <c r="B149" s="2"/>
+      <c r="B149" s="20"/>
     </row>
     <row r="150">
-      <c r="B150" s="2"/>
+      <c r="B150" s="20"/>
     </row>
     <row r="151">
-      <c r="B151" s="2"/>
+      <c r="B151" s="20"/>
     </row>
     <row r="152">
-      <c r="B152" s="2"/>
+      <c r="B152" s="20"/>
     </row>
     <row r="153">
-      <c r="B153" s="2"/>
+      <c r="B153" s="20"/>
     </row>
     <row r="154">
-      <c r="B154" s="2"/>
+      <c r="B154" s="20"/>
     </row>
     <row r="155">
-      <c r="B155" s="2"/>
+      <c r="B155" s="20"/>
     </row>
     <row r="156">
-      <c r="B156" s="2"/>
+      <c r="B156" s="20"/>
     </row>
     <row r="157">
-      <c r="B157" s="2"/>
+      <c r="B157" s="20"/>
     </row>
     <row r="158">
-      <c r="B158" s="2"/>
+      <c r="B158" s="20"/>
     </row>
     <row r="159">
-      <c r="B159" s="2"/>
+      <c r="B159" s="20"/>
     </row>
     <row r="160">
-      <c r="B160" s="2"/>
+      <c r="B160" s="20"/>
     </row>
     <row r="161">
-      <c r="B161" s="2"/>
+      <c r="B161" s="20"/>
     </row>
     <row r="162">
-      <c r="B162" s="2"/>
+      <c r="B162" s="20"/>
     </row>
     <row r="163">
-      <c r="B163" s="2"/>
+      <c r="B163" s="20"/>
     </row>
     <row r="164">
-      <c r="B164" s="2"/>
+      <c r="B164" s="20"/>
     </row>
     <row r="165">
-      <c r="B165" s="2"/>
+      <c r="B165" s="20"/>
     </row>
     <row r="166">
-      <c r="B166" s="2"/>
+      <c r="B166" s="20"/>
     </row>
     <row r="167">
-      <c r="B167" s="2"/>
+      <c r="B167" s="20"/>
     </row>
     <row r="168">
-      <c r="B168" s="2"/>
+      <c r="B168" s="20"/>
     </row>
     <row r="169">
-      <c r="B169" s="2"/>
+      <c r="B169" s="20"/>
     </row>
     <row r="170">
-      <c r="B170" s="2"/>
+      <c r="B170" s="20"/>
     </row>
     <row r="171">
-      <c r="B171" s="2"/>
+      <c r="B171" s="20"/>
     </row>
     <row r="172">
-      <c r="B172" s="2"/>
+      <c r="B172" s="20"/>
     </row>
     <row r="173">
-      <c r="B173" s="2"/>
+      <c r="B173" s="20"/>
     </row>
     <row r="174">
-      <c r="B174" s="2"/>
+      <c r="B174" s="20"/>
     </row>
     <row r="175">
-      <c r="B175" s="2"/>
+      <c r="B175" s="20"/>
     </row>
     <row r="176">
-      <c r="B176" s="2"/>
+      <c r="B176" s="20"/>
     </row>
     <row r="177">
-      <c r="B177" s="2"/>
+      <c r="B177" s="20"/>
     </row>
     <row r="178">
-      <c r="B178" s="2"/>
+      <c r="B178" s="20"/>
     </row>
     <row r="179">
-      <c r="B179" s="2"/>
+      <c r="B179" s="20"/>
     </row>
     <row r="180">
-      <c r="B180" s="2"/>
+      <c r="B180" s="20"/>
     </row>
     <row r="181">
-      <c r="B181" s="2"/>
+      <c r="B181" s="20"/>
     </row>
     <row r="182">
-      <c r="B182" s="2"/>
+      <c r="B182" s="20"/>
     </row>
     <row r="183">
-      <c r="B183" s="2"/>
+      <c r="B183" s="20"/>
     </row>
     <row r="184">
-      <c r="B184" s="2"/>
+      <c r="B184" s="20"/>
     </row>
     <row r="185">
-      <c r="B185" s="2"/>
+      <c r="B185" s="20"/>
     </row>
     <row r="186">
-      <c r="B186" s="2"/>
+      <c r="B186" s="20"/>
     </row>
     <row r="187">
-      <c r="B187" s="2"/>
+      <c r="B187" s="20"/>
     </row>
     <row r="188">
-      <c r="B188" s="2"/>
+      <c r="B188" s="20"/>
     </row>
     <row r="189">
-      <c r="B189" s="2"/>
+      <c r="B189" s="20"/>
     </row>
     <row r="190">
-      <c r="B190" s="2"/>
+      <c r="B190" s="20"/>
     </row>
     <row r="191">
-      <c r="B191" s="2"/>
+      <c r="B191" s="20"/>
     </row>
     <row r="192">
-      <c r="B192" s="2"/>
+      <c r="B192" s="20"/>
     </row>
     <row r="193">
-      <c r="B193" s="2"/>
+      <c r="B193" s="20"/>
     </row>
     <row r="194">
-      <c r="B194" s="2"/>
+      <c r="B194" s="20"/>
     </row>
     <row r="195">
-      <c r="B195" s="2"/>
+      <c r="B195" s="20"/>
     </row>
     <row r="196">
-      <c r="B196" s="2"/>
+      <c r="B196" s="20"/>
     </row>
     <row r="197">
-      <c r="B197" s="2"/>
+      <c r="B197" s="20"/>
     </row>
     <row r="198">
-      <c r="B198" s="2"/>
+      <c r="B198" s="20"/>
     </row>
     <row r="199">
-      <c r="B199" s="2"/>
+      <c r="B199" s="20"/>
     </row>
     <row r="200">
-      <c r="B200" s="2"/>
+      <c r="B200" s="20"/>
     </row>
     <row r="201">
-      <c r="B201" s="2"/>
+      <c r="B201" s="20"/>
     </row>
     <row r="202">
-      <c r="B202" s="2"/>
+      <c r="B202" s="20"/>
     </row>
     <row r="203">
-      <c r="B203" s="2"/>
+      <c r="B203" s="20"/>
     </row>
     <row r="204">
-      <c r="B204" s="2"/>
+      <c r="B204" s="20"/>
     </row>
     <row r="205">
-      <c r="B205" s="2"/>
+      <c r="B205" s="20"/>
     </row>
     <row r="206">
-      <c r="B206" s="2"/>
+      <c r="B206" s="20"/>
     </row>
     <row r="207">
-      <c r="B207" s="2"/>
+      <c r="B207" s="20"/>
     </row>
     <row r="208">
-      <c r="B208" s="2"/>
+      <c r="B208" s="20"/>
     </row>
     <row r="209">
-      <c r="B209" s="2"/>
+      <c r="B209" s="20"/>
     </row>
     <row r="210">
-      <c r="B210" s="2"/>
+      <c r="B210" s="20"/>
     </row>
     <row r="211">
-      <c r="B211" s="2"/>
+      <c r="B211" s="20"/>
     </row>
     <row r="212">
-      <c r="B212" s="2"/>
+      <c r="B212" s="20"/>
     </row>
     <row r="213">
-      <c r="B213" s="2"/>
+      <c r="B213" s="20"/>
     </row>
     <row r="214">
-      <c r="B214" s="2"/>
+      <c r="B214" s="20"/>
     </row>
     <row r="215">
-      <c r="B215" s="2"/>
+      <c r="B215" s="20"/>
     </row>
     <row r="216">
-      <c r="B216" s="2"/>
+      <c r="B216" s="20"/>
     </row>
     <row r="217">
-      <c r="B217" s="2"/>
+      <c r="B217" s="20"/>
     </row>
     <row r="218">
-      <c r="B218" s="2"/>
+      <c r="B218" s="20"/>
     </row>
     <row r="219">
-      <c r="B219" s="2"/>
+      <c r="B219" s="20"/>
     </row>
     <row r="220">
-      <c r="B220" s="2"/>
+      <c r="B220" s="20"/>
     </row>
     <row r="221">
-      <c r="B221" s="2"/>
+      <c r="B221" s="20"/>
     </row>
     <row r="222">
-      <c r="B222" s="2"/>
+      <c r="B222" s="20"/>
     </row>
     <row r="223">
-      <c r="B223" s="2"/>
+      <c r="B223" s="20"/>
     </row>
     <row r="224">
-      <c r="B224" s="2"/>
+      <c r="B224" s="20"/>
     </row>
     <row r="225">
-      <c r="B225" s="2"/>
+      <c r="B225" s="20"/>
     </row>
     <row r="226">
-      <c r="B226" s="2"/>
+      <c r="B226" s="20"/>
     </row>
     <row r="227">
-      <c r="B227" s="2"/>
+      <c r="B227" s="20"/>
     </row>
     <row r="228">
-      <c r="B228" s="2"/>
+      <c r="B228" s="20"/>
     </row>
     <row r="229">
-      <c r="B229" s="2"/>
+      <c r="B229" s="20"/>
     </row>
     <row r="230">
-      <c r="B230" s="2"/>
+      <c r="B230" s="20"/>
     </row>
     <row r="231">
-      <c r="B231" s="2"/>
+      <c r="B231" s="20"/>
     </row>
     <row r="232">
-      <c r="B232" s="2"/>
+      <c r="B232" s="20"/>
     </row>
     <row r="233">
-      <c r="B233" s="2"/>
+      <c r="B233" s="20"/>
     </row>
     <row r="234">
-      <c r="B234" s="2"/>
+      <c r="B234" s="20"/>
     </row>
     <row r="235">
-      <c r="B235" s="2"/>
+      <c r="B235" s="20"/>
     </row>
     <row r="236">
-      <c r="B236" s="2"/>
+      <c r="B236" s="20"/>
     </row>
     <row r="237">
-      <c r="B237" s="2"/>
+      <c r="B237" s="20"/>
     </row>
     <row r="238">
-      <c r="B238" s="2"/>
+      <c r="B238" s="20"/>
     </row>
     <row r="239">
-      <c r="B239" s="2"/>
+      <c r="B239" s="20"/>
     </row>
     <row r="240">
-      <c r="B240" s="2"/>
+      <c r="B240" s="20"/>
     </row>
     <row r="241">
-      <c r="B241" s="2"/>
+      <c r="B241" s="20"/>
     </row>
     <row r="242">
-      <c r="B242" s="2"/>
+      <c r="B242" s="20"/>
     </row>
     <row r="243">
-      <c r="B243" s="2"/>
+      <c r="B243" s="20"/>
     </row>
     <row r="244">
-      <c r="B244" s="2"/>
+      <c r="B244" s="20"/>
     </row>
     <row r="245">
-      <c r="B245" s="2"/>
+      <c r="B245" s="20"/>
     </row>
     <row r="246">
-      <c r="B246" s="2"/>
+      <c r="B246" s="20"/>
     </row>
     <row r="247">
-      <c r="B247" s="2"/>
+      <c r="B247" s="20"/>
     </row>
     <row r="248">
-      <c r="B248" s="2"/>
+      <c r="B248" s="20"/>
     </row>
     <row r="249">
-      <c r="B249" s="2"/>
+      <c r="B249" s="20"/>
     </row>
     <row r="250">
-      <c r="B250" s="2"/>
+      <c r="B250" s="20"/>
     </row>
     <row r="251">
-      <c r="B251" s="2"/>
+      <c r="B251" s="20"/>
     </row>
     <row r="252">
-      <c r="B252" s="2"/>
+      <c r="B252" s="20"/>
     </row>
     <row r="253">
-      <c r="B253" s="2"/>
+      <c r="B253" s="20"/>
     </row>
     <row r="254">
-      <c r="B254" s="2"/>
+      <c r="B254" s="20"/>
     </row>
     <row r="255">
-      <c r="B255" s="2"/>
+      <c r="B255" s="20"/>
     </row>
     <row r="256">
-      <c r="B256" s="2"/>
+      <c r="B256" s="20"/>
     </row>
     <row r="257">
-      <c r="B257" s="2"/>
+      <c r="B257" s="20"/>
     </row>
     <row r="258">
-      <c r="B258" s="2"/>
+      <c r="B258" s="20"/>
     </row>
     <row r="259">
-      <c r="B259" s="2"/>
+      <c r="B259" s="20"/>
     </row>
     <row r="260">
-      <c r="B260" s="2"/>
+      <c r="B260" s="20"/>
     </row>
     <row r="261">
-      <c r="B261" s="2"/>
+      <c r="B261" s="20"/>
     </row>
     <row r="262">
-      <c r="B262" s="2"/>
+      <c r="B262" s="20"/>
     </row>
     <row r="263">
-      <c r="B263" s="2"/>
+      <c r="B263" s="20"/>
     </row>
     <row r="264">
-      <c r="B264" s="2"/>
+      <c r="B264" s="20"/>
     </row>
     <row r="265">
-      <c r="B265" s="2"/>
+      <c r="B265" s="20"/>
     </row>
     <row r="266">
-      <c r="B266" s="2"/>
+      <c r="B266" s="20"/>
     </row>
     <row r="267">
-      <c r="B267" s="2"/>
+      <c r="B267" s="20"/>
     </row>
     <row r="268">
-      <c r="B268" s="2"/>
+      <c r="B268" s="20"/>
     </row>
     <row r="269">
-      <c r="B269" s="2"/>
+      <c r="B269" s="20"/>
     </row>
     <row r="270">
-      <c r="B270" s="2"/>
+      <c r="B270" s="20"/>
     </row>
     <row r="271">
-      <c r="B271" s="2"/>
+      <c r="B271" s="20"/>
     </row>
     <row r="272">
-      <c r="B272" s="2"/>
+      <c r="B272" s="20"/>
     </row>
     <row r="273">
-      <c r="B273" s="2"/>
+      <c r="B273" s="20"/>
     </row>
     <row r="274">
-      <c r="B274" s="2"/>
+      <c r="B274" s="20"/>
     </row>
     <row r="275">
-      <c r="B275" s="2"/>
+      <c r="B275" s="20"/>
     </row>
     <row r="276">
-      <c r="B276" s="2"/>
+      <c r="B276" s="20"/>
     </row>
     <row r="277">
-      <c r="B277" s="2"/>
+      <c r="B277" s="20"/>
     </row>
     <row r="278">
-      <c r="B278" s="2"/>
+      <c r="B278" s="20"/>
     </row>
     <row r="279">
-      <c r="B279" s="2"/>
+      <c r="B279" s="20"/>
     </row>
     <row r="280">
-      <c r="B280" s="2"/>
+      <c r="B280" s="20"/>
     </row>
     <row r="281">
-      <c r="B281" s="2"/>
+      <c r="B281" s="20"/>
     </row>
     <row r="282">
-      <c r="B282" s="2"/>
+      <c r="B282" s="20"/>
     </row>
     <row r="283">
-      <c r="B283" s="2"/>
+      <c r="B283" s="20"/>
     </row>
     <row r="284">
-      <c r="B284" s="2"/>
+      <c r="B284" s="20"/>
     </row>
     <row r="285">
-      <c r="B285" s="2"/>
+      <c r="B285" s="20"/>
     </row>
     <row r="286">
-      <c r="B286" s="2"/>
+      <c r="B286" s="20"/>
     </row>
     <row r="287">
-      <c r="B287" s="2"/>
+      <c r="B287" s="20"/>
     </row>
     <row r="288">
-      <c r="B288" s="2"/>
+      <c r="B288" s="20"/>
     </row>
     <row r="289">
-      <c r="B289" s="2"/>
+      <c r="B289" s="20"/>
     </row>
     <row r="290">
-      <c r="B290" s="2"/>
+      <c r="B290" s="20"/>
     </row>
     <row r="291">
-      <c r="B291" s="2"/>
+      <c r="B291" s="20"/>
     </row>
     <row r="292">
-      <c r="B292" s="2"/>
+      <c r="B292" s="20"/>
     </row>
     <row r="293">
-      <c r="B293" s="2"/>
+      <c r="B293" s="20"/>
     </row>
     <row r="294">
-      <c r="B294" s="2"/>
+      <c r="B294" s="20"/>
     </row>
     <row r="295">
-      <c r="B295" s="2"/>
+      <c r="B295" s="20"/>
     </row>
     <row r="296">
-      <c r="B296" s="2"/>
+      <c r="B296" s="20"/>
     </row>
     <row r="297">
-      <c r="B297" s="2"/>
+      <c r="B297" s="20"/>
     </row>
     <row r="298">
-      <c r="B298" s="2"/>
+      <c r="B298" s="20"/>
     </row>
     <row r="299">
-      <c r="B299" s="2"/>
+      <c r="B299" s="20"/>
     </row>
     <row r="300">
-      <c r="B300" s="2"/>
+      <c r="B300" s="20"/>
     </row>
     <row r="301">
-      <c r="B301" s="2"/>
+      <c r="B301" s="20"/>
     </row>
     <row r="302">
-      <c r="B302" s="2"/>
+      <c r="B302" s="20"/>
     </row>
     <row r="303">
-      <c r="B303" s="2"/>
+      <c r="B303" s="20"/>
     </row>
     <row r="304">
-      <c r="B304" s="2"/>
+      <c r="B304" s="20"/>
     </row>
     <row r="305">
-      <c r="B305" s="2"/>
+      <c r="B305" s="20"/>
     </row>
     <row r="306">
-      <c r="B306" s="2"/>
+      <c r="B306" s="20"/>
     </row>
     <row r="307">
-      <c r="B307" s="2"/>
+      <c r="B307" s="20"/>
     </row>
     <row r="308">
-      <c r="B308" s="2"/>
+      <c r="B308" s="20"/>
     </row>
     <row r="309">
-      <c r="B309" s="2"/>
+      <c r="B309" s="20"/>
     </row>
     <row r="310">
-      <c r="B310" s="2"/>
+      <c r="B310" s="20"/>
     </row>
     <row r="311">
-      <c r="B311" s="2"/>
+      <c r="B311" s="20"/>
     </row>
     <row r="312">
-      <c r="B312" s="2"/>
+      <c r="B312" s="20"/>
     </row>
     <row r="313">
-      <c r="B313" s="2"/>
+      <c r="B313" s="20"/>
     </row>
     <row r="314">
-      <c r="B314" s="2"/>
+      <c r="B314" s="20"/>
     </row>
     <row r="315">
-      <c r="B315" s="2"/>
+      <c r="B315" s="20"/>
     </row>
     <row r="316">
-      <c r="B316" s="2"/>
+      <c r="B316" s="20"/>
     </row>
     <row r="317">
-      <c r="B317" s="2"/>
+      <c r="B317" s="20"/>
     </row>
     <row r="318">
-      <c r="B318" s="2"/>
+      <c r="B318" s="20"/>
     </row>
     <row r="319">
-      <c r="B319" s="2"/>
+      <c r="B319" s="20"/>
     </row>
     <row r="320">
-      <c r="B320" s="2"/>
+      <c r="B320" s="20"/>
     </row>
     <row r="321">
-      <c r="B321" s="2"/>
+      <c r="B321" s="20"/>
     </row>
     <row r="322">
-      <c r="B322" s="2"/>
+      <c r="B322" s="20"/>
     </row>
     <row r="323">
-      <c r="B323" s="2"/>
+      <c r="B323" s="20"/>
     </row>
     <row r="324">
-      <c r="B324" s="2"/>
+      <c r="B324" s="20"/>
     </row>
     <row r="325">
-      <c r="B325" s="2"/>
+      <c r="B325" s="20"/>
     </row>
     <row r="326">
-      <c r="B326" s="2"/>
+      <c r="B326" s="20"/>
     </row>
     <row r="327">
-      <c r="B327" s="2"/>
+      <c r="B327" s="20"/>
     </row>
     <row r="328">
-      <c r="B328" s="2"/>
+      <c r="B328" s="20"/>
     </row>
     <row r="329">
-      <c r="B329" s="2"/>
+      <c r="B329" s="20"/>
     </row>
     <row r="330">
-      <c r="B330" s="2"/>
+      <c r="B330" s="20"/>
     </row>
     <row r="331">
-      <c r="B331" s="2"/>
+      <c r="B331" s="20"/>
     </row>
     <row r="332">
-      <c r="B332" s="2"/>
+      <c r="B332" s="20"/>
     </row>
     <row r="333">
-      <c r="B333" s="2"/>
+      <c r="B333" s="20"/>
     </row>
     <row r="334">
-      <c r="B334" s="2"/>
+      <c r="B334" s="20"/>
     </row>
     <row r="335">
-      <c r="B335" s="2"/>
+      <c r="B335" s="20"/>
     </row>
     <row r="336">
-      <c r="B336" s="2"/>
+      <c r="B336" s="20"/>
     </row>
     <row r="337">
-      <c r="B337" s="2"/>
+      <c r="B337" s="20"/>
     </row>
     <row r="338">
-      <c r="B338" s="2"/>
+      <c r="B338" s="20"/>
     </row>
     <row r="339">
-      <c r="B339" s="2"/>
+      <c r="B339" s="20"/>
     </row>
     <row r="340">
-      <c r="B340" s="2"/>
+      <c r="B340" s="20"/>
     </row>
     <row r="341">
-      <c r="B341" s="2"/>
+      <c r="B341" s="20"/>
     </row>
     <row r="342">
-      <c r="B342" s="2"/>
+      <c r="B342" s="20"/>
     </row>
     <row r="343">
-      <c r="B343" s="2"/>
+      <c r="B343" s="20"/>
     </row>
     <row r="344">
-      <c r="B344" s="2"/>
+      <c r="B344" s="20"/>
     </row>
     <row r="345">
-      <c r="B345" s="2"/>
+      <c r="B345" s="20"/>
     </row>
     <row r="346">
-      <c r="B346" s="2"/>
+      <c r="B346" s="20"/>
     </row>
     <row r="347">
-      <c r="B347" s="2"/>
+      <c r="B347" s="20"/>
     </row>
     <row r="348">
-      <c r="B348" s="2"/>
+      <c r="B348" s="20"/>
     </row>
     <row r="349">
-      <c r="B349" s="2"/>
+      <c r="B349" s="20"/>
     </row>
     <row r="350">
-      <c r="B350" s="2"/>
+      <c r="B350" s="20"/>
     </row>
     <row r="351">
-      <c r="B351" s="2"/>
+      <c r="B351" s="20"/>
     </row>
     <row r="352">
-      <c r="B352" s="2"/>
+      <c r="B352" s="20"/>
     </row>
     <row r="353">
-      <c r="B353" s="2"/>
+      <c r="B353" s="20"/>
     </row>
     <row r="354">
-      <c r="B354" s="2"/>
+      <c r="B354" s="20"/>
     </row>
     <row r="355">
-      <c r="B355" s="2"/>
+      <c r="B355" s="20"/>
     </row>
     <row r="356">
-      <c r="B356" s="2"/>
+      <c r="B356" s="20"/>
     </row>
     <row r="357">
-      <c r="B357" s="2"/>
+      <c r="B357" s="20"/>
     </row>
     <row r="358">
-      <c r="B358" s="2"/>
+      <c r="B358" s="20"/>
     </row>
     <row r="359">
-      <c r="B359" s="2"/>
+      <c r="B359" s="20"/>
     </row>
     <row r="360">
-      <c r="B360" s="2"/>
+      <c r="B360" s="20"/>
     </row>
     <row r="361">
-      <c r="B361" s="2"/>
+      <c r="B361" s="20"/>
     </row>
     <row r="362">
-      <c r="B362" s="2"/>
+      <c r="B362" s="20"/>
     </row>
     <row r="363">
-      <c r="B363" s="2"/>
+      <c r="B363" s="20"/>
     </row>
     <row r="364">
-      <c r="B364" s="2"/>
+      <c r="B364" s="20"/>
     </row>
     <row r="365">
-      <c r="B365" s="2"/>
+      <c r="B365" s="20"/>
     </row>
     <row r="366">
-      <c r="B366" s="2"/>
+      <c r="B366" s="20"/>
     </row>
     <row r="367">
-      <c r="B367" s="2"/>
+      <c r="B367" s="20"/>
     </row>
     <row r="368">
-      <c r="B368" s="2"/>
+      <c r="B368" s="20"/>
     </row>
     <row r="369">
-      <c r="B369" s="2"/>
+      <c r="B369" s="20"/>
     </row>
     <row r="370">
-      <c r="B370" s="2"/>
+      <c r="B370" s="20"/>
     </row>
     <row r="371">
-      <c r="B371" s="2"/>
+      <c r="B371" s="20"/>
     </row>
     <row r="372">
-      <c r="B372" s="2"/>
+      <c r="B372" s="20"/>
     </row>
     <row r="373">
-      <c r="B373" s="2"/>
+      <c r="B373" s="20"/>
     </row>
     <row r="374">
-      <c r="B374" s="2"/>
+      <c r="B374" s="20"/>
     </row>
     <row r="375">
-      <c r="B375" s="2"/>
+      <c r="B375" s="20"/>
     </row>
     <row r="376">
-      <c r="B376" s="2"/>
+      <c r="B376" s="20"/>
     </row>
     <row r="377">
-      <c r="B377" s="2"/>
+      <c r="B377" s="20"/>
     </row>
     <row r="378">
-      <c r="B378" s="2"/>
+      <c r="B378" s="20"/>
     </row>
     <row r="379">
-      <c r="B379" s="2"/>
+      <c r="B379" s="20"/>
     </row>
     <row r="380">
-      <c r="B380" s="2"/>
+      <c r="B380" s="20"/>
     </row>
     <row r="381">
-      <c r="B381" s="2"/>
+      <c r="B381" s="20"/>
     </row>
     <row r="382">
-      <c r="B382" s="2"/>
+      <c r="B382" s="20"/>
     </row>
     <row r="383">
-      <c r="B383" s="2"/>
+      <c r="B383" s="20"/>
     </row>
     <row r="384">
-      <c r="B384" s="2"/>
+      <c r="B384" s="20"/>
     </row>
     <row r="385">
-      <c r="B385" s="2"/>
+      <c r="B385" s="20"/>
     </row>
     <row r="386">
-      <c r="B386" s="2"/>
+      <c r="B386" s="20"/>
     </row>
     <row r="387">
-      <c r="B387" s="2"/>
+      <c r="B387" s="20"/>
     </row>
     <row r="388">
-      <c r="B388" s="2"/>
+      <c r="B388" s="20"/>
     </row>
     <row r="389">
-      <c r="B389" s="2"/>
+      <c r="B389" s="20"/>
     </row>
     <row r="390">
-      <c r="B390" s="2"/>
+      <c r="B390" s="20"/>
     </row>
     <row r="391">
-      <c r="B391" s="2"/>
+      <c r="B391" s="20"/>
     </row>
     <row r="392">
-      <c r="B392" s="2"/>
+      <c r="B392" s="20"/>
     </row>
     <row r="393">
-      <c r="B393" s="2"/>
+      <c r="B393" s="20"/>
     </row>
     <row r="394">
-      <c r="B394" s="2"/>
+      <c r="B394" s="20"/>
     </row>
     <row r="395">
-      <c r="B395" s="2"/>
+      <c r="B395" s="20"/>
     </row>
     <row r="396">
-      <c r="B396" s="2"/>
+      <c r="B396" s="20"/>
     </row>
     <row r="397">
-      <c r="B397" s="2"/>
+      <c r="B397" s="20"/>
     </row>
     <row r="398">
-      <c r="B398" s="2"/>
+      <c r="B398" s="20"/>
     </row>
     <row r="399">
-      <c r="B399" s="2"/>
+      <c r="B399" s="20"/>
     </row>
     <row r="400">
-      <c r="B400" s="2"/>
+      <c r="B400" s="20"/>
     </row>
     <row r="401">
-      <c r="B401" s="2"/>
+      <c r="B401" s="20"/>
     </row>
     <row r="402">
-      <c r="B402" s="2"/>
+      <c r="B402" s="20"/>
     </row>
     <row r="403">
-      <c r="B403" s="2"/>
+      <c r="B403" s="20"/>
     </row>
     <row r="404">
-      <c r="B404" s="2"/>
+      <c r="B404" s="20"/>
     </row>
     <row r="405">
-      <c r="B405" s="2"/>
+      <c r="B405" s="20"/>
     </row>
     <row r="406">
-      <c r="B406" s="2"/>
+      <c r="B406" s="20"/>
     </row>
     <row r="407">
-      <c r="B407" s="2"/>
+      <c r="B407" s="20"/>
     </row>
     <row r="408">
-      <c r="B408" s="2"/>
+      <c r="B408" s="20"/>
     </row>
     <row r="409">
-      <c r="B409" s="2"/>
+      <c r="B409" s="20"/>
     </row>
     <row r="410">
-      <c r="B410" s="2"/>
+      <c r="B410" s="20"/>
     </row>
     <row r="411">
-      <c r="B411" s="2"/>
+      <c r="B411" s="20"/>
     </row>
     <row r="412">
-      <c r="B412" s="2"/>
+      <c r="B412" s="20"/>
     </row>
     <row r="413">
-      <c r="B413" s="2"/>
+      <c r="B413" s="20"/>
     </row>
     <row r="414">
-      <c r="B414" s="2"/>
+      <c r="B414" s="20"/>
     </row>
     <row r="415">
-      <c r="B415" s="2"/>
+      <c r="B415" s="20"/>
     </row>
     <row r="416">
-      <c r="B416" s="2"/>
+      <c r="B416" s="20"/>
     </row>
     <row r="417">
-      <c r="B417" s="2"/>
+      <c r="B417" s="20"/>
     </row>
     <row r="418">
-      <c r="B418" s="2"/>
+      <c r="B418" s="20"/>
     </row>
     <row r="419">
-      <c r="B419" s="2"/>
+      <c r="B419" s="20"/>
     </row>
     <row r="420">
-      <c r="B420" s="2"/>
+      <c r="B420" s="20"/>
     </row>
     <row r="421">
-      <c r="B421" s="2"/>
+      <c r="B421" s="20"/>
     </row>
     <row r="422">
-      <c r="B422" s="2"/>
+      <c r="B422" s="20"/>
     </row>
     <row r="423">
-      <c r="B423" s="2"/>
+      <c r="B423" s="20"/>
     </row>
     <row r="424">
-      <c r="B424" s="2"/>
+      <c r="B424" s="20"/>
     </row>
     <row r="425">
-      <c r="B425" s="2"/>
+      <c r="B425" s="20"/>
     </row>
     <row r="426">
-      <c r="B426" s="2"/>
+      <c r="B426" s="20"/>
     </row>
     <row r="427">
-      <c r="B427" s="2"/>
+      <c r="B427" s="20"/>
     </row>
     <row r="428">
-      <c r="B428" s="2"/>
+      <c r="B428" s="20"/>
     </row>
     <row r="429">
-      <c r="B429" s="2"/>
+      <c r="B429" s="20"/>
     </row>
     <row r="430">
-      <c r="B430" s="2"/>
+      <c r="B430" s="20"/>
     </row>
     <row r="431">
-      <c r="B431" s="2"/>
+      <c r="B431" s="20"/>
     </row>
     <row r="432">
-      <c r="B432" s="2"/>
+      <c r="B432" s="20"/>
     </row>
     <row r="433">
-      <c r="B433" s="2"/>
+      <c r="B433" s="20"/>
     </row>
     <row r="434">
-      <c r="B434" s="2"/>
+      <c r="B434" s="20"/>
     </row>
     <row r="435">
-      <c r="B435" s="2"/>
+      <c r="B435" s="20"/>
     </row>
     <row r="436">
-      <c r="B436" s="2"/>
+      <c r="B436" s="20"/>
     </row>
     <row r="437">
-      <c r="B437" s="2"/>
+      <c r="B437" s="20"/>
     </row>
     <row r="438">
-      <c r="B438" s="2"/>
+      <c r="B438" s="20"/>
     </row>
     <row r="439">
-      <c r="B439" s="2"/>
+      <c r="B439" s="20"/>
     </row>
     <row r="440">
-      <c r="B440" s="2"/>
+      <c r="B440" s="20"/>
     </row>
     <row r="441">
-      <c r="B441" s="2"/>
+      <c r="B441" s="20"/>
     </row>
     <row r="442">
-      <c r="B442" s="2"/>
+      <c r="B442" s="20"/>
     </row>
     <row r="443">
-      <c r="B443" s="2"/>
+      <c r="B443" s="20"/>
     </row>
     <row r="444">
-      <c r="B444" s="2"/>
+      <c r="B444" s="20"/>
     </row>
     <row r="445">
-      <c r="B445" s="2"/>
+      <c r="B445" s="20"/>
     </row>
     <row r="446">
-      <c r="B446" s="2"/>
+      <c r="B446" s="20"/>
     </row>
     <row r="447">
-      <c r="B447" s="2"/>
+      <c r="B447" s="20"/>
     </row>
     <row r="448">
-      <c r="B448" s="2"/>
+      <c r="B448" s="20"/>
     </row>
     <row r="449">
-      <c r="B449" s="2"/>
+      <c r="B449" s="20"/>
     </row>
     <row r="450">
-      <c r="B450" s="2"/>
+      <c r="B450" s="20"/>
     </row>
     <row r="451">
-      <c r="B451" s="2"/>
+      <c r="B451" s="20"/>
     </row>
     <row r="452">
-      <c r="B452" s="2"/>
+      <c r="B452" s="20"/>
     </row>
     <row r="453">
-      <c r="B453" s="2"/>
+      <c r="B453" s="20"/>
     </row>
     <row r="454">
-      <c r="B454" s="2"/>
+      <c r="B454" s="20"/>
     </row>
     <row r="455">
-      <c r="B455" s="2"/>
+      <c r="B455" s="20"/>
     </row>
     <row r="456">
-      <c r="B456" s="2"/>
+      <c r="B456" s="20"/>
     </row>
     <row r="457">
-      <c r="B457" s="2"/>
+      <c r="B457" s="20"/>
     </row>
     <row r="458">
-      <c r="B458" s="2"/>
+      <c r="B458" s="20"/>
     </row>
     <row r="459">
-      <c r="B459" s="2"/>
+      <c r="B459" s="20"/>
     </row>
     <row r="460">
-      <c r="B460" s="2"/>
+      <c r="B460" s="20"/>
     </row>
     <row r="461">
-      <c r="B461" s="2"/>
+      <c r="B461" s="20"/>
     </row>
     <row r="462">
-      <c r="B462" s="2"/>
+      <c r="B462" s="20"/>
     </row>
     <row r="463">
-      <c r="B463" s="2"/>
+      <c r="B463" s="20"/>
     </row>
     <row r="464">
-      <c r="B464" s="2"/>
+      <c r="B464" s="20"/>
     </row>
     <row r="465">
-      <c r="B465" s="2"/>
+      <c r="B465" s="20"/>
     </row>
     <row r="466">
-      <c r="B466" s="2"/>
+      <c r="B466" s="20"/>
     </row>
     <row r="467">
-      <c r="B467" s="2"/>
+      <c r="B467" s="20"/>
     </row>
     <row r="468">
-      <c r="B468" s="2"/>
+      <c r="B468" s="20"/>
     </row>
     <row r="469">
-      <c r="B469" s="2"/>
+      <c r="B469" s="20"/>
     </row>
     <row r="470">
-      <c r="B470" s="2"/>
+      <c r="B470" s="20"/>
     </row>
     <row r="471">
-      <c r="B471" s="2"/>
+      <c r="B471" s="20"/>
     </row>
     <row r="472">
-      <c r="B472" s="2"/>
+      <c r="B472" s="20"/>
     </row>
     <row r="473">
-      <c r="B473" s="2"/>
+      <c r="B473" s="20"/>
     </row>
     <row r="474">
-      <c r="B474" s="2"/>
+      <c r="B474" s="20"/>
     </row>
     <row r="475">
-      <c r="B475" s="2"/>
+      <c r="B475" s="20"/>
     </row>
     <row r="476">
-      <c r="B476" s="2"/>
+      <c r="B476" s="20"/>
     </row>
     <row r="477">
-      <c r="B477" s="2"/>
+      <c r="B477" s="20"/>
     </row>
     <row r="478">
-      <c r="B478" s="2"/>
+      <c r="B478" s="20"/>
     </row>
     <row r="479">
-      <c r="B479" s="2"/>
+      <c r="B479" s="20"/>
     </row>
     <row r="480">
-      <c r="B480" s="2"/>
+      <c r="B480" s="20"/>
     </row>
     <row r="481">
-      <c r="B481" s="2"/>
+      <c r="B481" s="20"/>
     </row>
     <row r="482">
-      <c r="B482" s="2"/>
+      <c r="B482" s="20"/>
     </row>
     <row r="483">
-      <c r="B483" s="2"/>
+      <c r="B483" s="20"/>
     </row>
     <row r="484">
-      <c r="B484" s="2"/>
+      <c r="B484" s="20"/>
     </row>
     <row r="485">
-      <c r="B485" s="2"/>
+      <c r="B485" s="20"/>
     </row>
     <row r="486">
-      <c r="B486" s="2"/>
+      <c r="B486" s="20"/>
     </row>
     <row r="487">
-      <c r="B487" s="2"/>
+      <c r="B487" s="20"/>
     </row>
     <row r="488">
-      <c r="B488" s="2"/>
+      <c r="B488" s="20"/>
     </row>
     <row r="489">
-      <c r="B489" s="2"/>
+      <c r="B489" s="20"/>
     </row>
     <row r="490">
-      <c r="B490" s="2"/>
+      <c r="B490" s="20"/>
     </row>
     <row r="491">
-      <c r="B491" s="2"/>
+      <c r="B491" s="20"/>
     </row>
     <row r="492">
-      <c r="B492" s="2"/>
+      <c r="B492" s="20"/>
     </row>
     <row r="493">
-      <c r="B493" s="2"/>
+      <c r="B493" s="20"/>
     </row>
     <row r="494">
-      <c r="B494" s="2"/>
+      <c r="B494" s="20"/>
     </row>
     <row r="495">
-      <c r="B495" s="2"/>
+      <c r="B495" s="20"/>
     </row>
     <row r="496">
-      <c r="B496" s="2"/>
+      <c r="B496" s="20"/>
     </row>
     <row r="497">
-      <c r="B497" s="2"/>
+      <c r="B497" s="20"/>
     </row>
     <row r="498">
-      <c r="B498" s="2"/>
+      <c r="B498" s="20"/>
     </row>
     <row r="499">
-      <c r="B499" s="2"/>
+      <c r="B499" s="20"/>
     </row>
     <row r="500">
-      <c r="B500" s="2"/>
+      <c r="B500" s="20"/>
     </row>
     <row r="501">
-      <c r="B501" s="2"/>
+      <c r="B501" s="20"/>
     </row>
     <row r="502">
-      <c r="B502" s="2"/>
+      <c r="B502" s="20"/>
     </row>
     <row r="503">
-      <c r="B503" s="2"/>
+      <c r="B503" s="20"/>
     </row>
     <row r="504">
-      <c r="B504" s="2"/>
+      <c r="B504" s="20"/>
     </row>
     <row r="505">
-      <c r="B505" s="2"/>
+      <c r="B505" s="20"/>
     </row>
     <row r="506">
-      <c r="B506" s="2"/>
+      <c r="B506" s="20"/>
     </row>
     <row r="507">
-      <c r="B507" s="2"/>
+      <c r="B507" s="20"/>
     </row>
     <row r="508">
-      <c r="B508" s="2"/>
+      <c r="B508" s="20"/>
     </row>
     <row r="509">
-      <c r="B509" s="2"/>
+      <c r="B509" s="20"/>
     </row>
     <row r="510">
-      <c r="B510" s="2"/>
+      <c r="B510" s="20"/>
     </row>
     <row r="511">
-      <c r="B511" s="2"/>
+      <c r="B511" s="20"/>
     </row>
     <row r="512">
-      <c r="B512" s="2"/>
+      <c r="B512" s="20"/>
     </row>
     <row r="513">
-      <c r="B513" s="2"/>
+      <c r="B513" s="20"/>
     </row>
     <row r="514">
-      <c r="B514" s="2"/>
+      <c r="B514" s="20"/>
     </row>
     <row r="515">
-      <c r="B515" s="2"/>
+      <c r="B515" s="20"/>
     </row>
     <row r="516">
-      <c r="B516" s="2"/>
+      <c r="B516" s="20"/>
     </row>
     <row r="517">
-      <c r="B517" s="2"/>
+      <c r="B517" s="20"/>
     </row>
     <row r="518">
-      <c r="B518" s="2"/>
+      <c r="B518" s="20"/>
     </row>
     <row r="519">
-      <c r="B519" s="2"/>
+      <c r="B519" s="20"/>
     </row>
     <row r="520">
-      <c r="B520" s="2"/>
+      <c r="B520" s="20"/>
     </row>
     <row r="521">
-      <c r="B521" s="2"/>
+      <c r="B521" s="20"/>
     </row>
     <row r="522">
-      <c r="B522" s="2"/>
+      <c r="B522" s="20"/>
     </row>
     <row r="523">
-      <c r="B523" s="2"/>
+      <c r="B523" s="20"/>
     </row>
     <row r="524">
-      <c r="B524" s="2"/>
+      <c r="B524" s="20"/>
     </row>
     <row r="525">
-      <c r="B525" s="2"/>
+      <c r="B525" s="20"/>
     </row>
     <row r="526">
-      <c r="B526" s="2"/>
+      <c r="B526" s="20"/>
     </row>
     <row r="527">
-      <c r="B527" s="2"/>
+      <c r="B527" s="20"/>
     </row>
     <row r="528">
-      <c r="B528" s="2"/>
+      <c r="B528" s="20"/>
     </row>
     <row r="529">
-      <c r="B529" s="2"/>
+      <c r="B529" s="20"/>
     </row>
     <row r="530">
-      <c r="B530" s="2"/>
+      <c r="B530" s="20"/>
     </row>
     <row r="531">
-      <c r="B531" s="2"/>
+      <c r="B531" s="20"/>
     </row>
     <row r="532">
-      <c r="B532" s="2"/>
+      <c r="B532" s="20"/>
     </row>
     <row r="533">
-      <c r="B533" s="2"/>
+      <c r="B533" s="20"/>
     </row>
     <row r="534">
-      <c r="B534" s="2"/>
+      <c r="B534" s="20"/>
     </row>
     <row r="535">
-      <c r="B535" s="2"/>
+      <c r="B535" s="20"/>
     </row>
     <row r="536">
-      <c r="B536" s="2"/>
+      <c r="B536" s="20"/>
     </row>
     <row r="537">
-      <c r="B537" s="2"/>
+      <c r="B537" s="20"/>
     </row>
     <row r="538">
-      <c r="B538" s="2"/>
+      <c r="B538" s="20"/>
     </row>
     <row r="539">
-      <c r="B539" s="2"/>
+      <c r="B539" s="20"/>
     </row>
     <row r="540">
-      <c r="B540" s="2"/>
+      <c r="B540" s="20"/>
     </row>
     <row r="541">
-      <c r="B541" s="2"/>
+      <c r="B541" s="20"/>
     </row>
     <row r="542">
-      <c r="B542" s="2"/>
+      <c r="B542" s="20"/>
     </row>
     <row r="543">
-      <c r="B543" s="2"/>
+      <c r="B543" s="20"/>
     </row>
     <row r="544">
-      <c r="B544" s="2"/>
+      <c r="B544" s="20"/>
     </row>
     <row r="545">
-      <c r="B545" s="2"/>
+      <c r="B545" s="20"/>
     </row>
     <row r="546">
-      <c r="B546" s="2"/>
+      <c r="B546" s="20"/>
     </row>
     <row r="547">
-      <c r="B547" s="2"/>
+      <c r="B547" s="20"/>
     </row>
     <row r="548">
-      <c r="B548" s="2"/>
+      <c r="B548" s="20"/>
     </row>
     <row r="549">
-      <c r="B549" s="2"/>
+      <c r="B549" s="20"/>
     </row>
     <row r="550">
-      <c r="B550" s="2"/>
+      <c r="B550" s="20"/>
     </row>
     <row r="551">
-      <c r="B551" s="2"/>
+      <c r="B551" s="20"/>
     </row>
     <row r="552">
-      <c r="B552" s="2"/>
+      <c r="B552" s="20"/>
     </row>
     <row r="553">
-      <c r="B553" s="2"/>
+      <c r="B553" s="20"/>
     </row>
     <row r="554">
-      <c r="B554" s="2"/>
+      <c r="B554" s="20"/>
     </row>
     <row r="555">
-      <c r="B555" s="2"/>
+      <c r="B555" s="20"/>
     </row>
     <row r="556">
-      <c r="B556" s="2"/>
+      <c r="B556" s="20"/>
     </row>
     <row r="557">
-      <c r="B557" s="2"/>
+      <c r="B557" s="20"/>
     </row>
     <row r="558">
-      <c r="B558" s="2"/>
+      <c r="B558" s="20"/>
     </row>
     <row r="559">
-      <c r="B559" s="2"/>
+      <c r="B559" s="20"/>
     </row>
     <row r="560">
-      <c r="B560" s="2"/>
+      <c r="B560" s="20"/>
     </row>
     <row r="561">
-      <c r="B561" s="2"/>
+      <c r="B561" s="20"/>
     </row>
     <row r="562">
-      <c r="B562" s="2"/>
+      <c r="B562" s="20"/>
     </row>
     <row r="563">
-      <c r="B563" s="2"/>
+      <c r="B563" s="20"/>
     </row>
     <row r="564">
-      <c r="B564" s="2"/>
+      <c r="B564" s="20"/>
     </row>
     <row r="565">
-      <c r="B565" s="2"/>
+      <c r="B565" s="20"/>
     </row>
     <row r="566">
-      <c r="B566" s="2"/>
+      <c r="B566" s="20"/>
     </row>
     <row r="567">
-      <c r="B567" s="2"/>
+      <c r="B567" s="20"/>
     </row>
     <row r="568">
-      <c r="B568" s="2"/>
+      <c r="B568" s="20"/>
     </row>
     <row r="569">
-      <c r="B569" s="2"/>
+      <c r="B569" s="20"/>
     </row>
     <row r="570">
-      <c r="B570" s="2"/>
+      <c r="B570" s="20"/>
     </row>
     <row r="571">
-      <c r="B571" s="2"/>
+      <c r="B571" s="20"/>
     </row>
     <row r="572">
-      <c r="B572" s="2"/>
+      <c r="B572" s="20"/>
     </row>
     <row r="573">
-      <c r="B573" s="2"/>
+      <c r="B573" s="20"/>
     </row>
     <row r="574">
-      <c r="B574" s="2"/>
+      <c r="B574" s="20"/>
     </row>
     <row r="575">
-      <c r="B575" s="2"/>
+      <c r="B575" s="20"/>
     </row>
     <row r="576">
-      <c r="B576" s="2"/>
+      <c r="B576" s="20"/>
     </row>
     <row r="577">
-      <c r="B577" s="2"/>
+      <c r="B577" s="20"/>
     </row>
     <row r="578">
-      <c r="B578" s="2"/>
+      <c r="B578" s="20"/>
     </row>
     <row r="579">
-      <c r="B579" s="2"/>
+      <c r="B579" s="20"/>
     </row>
     <row r="580">
-      <c r="B580" s="2"/>
+      <c r="B580" s="20"/>
     </row>
     <row r="581">
-      <c r="B581" s="2"/>
+      <c r="B581" s="20"/>
     </row>
     <row r="582">
-      <c r="B582" s="2"/>
+      <c r="B582" s="20"/>
     </row>
     <row r="583">
-      <c r="B583" s="2"/>
+      <c r="B583" s="20"/>
     </row>
     <row r="584">
-      <c r="B584" s="2"/>
+      <c r="B584" s="20"/>
     </row>
     <row r="585">
-      <c r="B585" s="2"/>
+      <c r="B585" s="20"/>
     </row>
     <row r="586">
-      <c r="B586" s="2"/>
+      <c r="B586" s="20"/>
     </row>
     <row r="587">
-      <c r="B587" s="2"/>
+      <c r="B587" s="20"/>
     </row>
     <row r="588">
-      <c r="B588" s="2"/>
+      <c r="B588" s="20"/>
     </row>
     <row r="589">
-      <c r="B589" s="2"/>
+      <c r="B589" s="20"/>
     </row>
     <row r="590">
-      <c r="B590" s="2"/>
+      <c r="B590" s="20"/>
     </row>
     <row r="591">
-      <c r="B591" s="2"/>
+      <c r="B591" s="20"/>
     </row>
     <row r="592">
-      <c r="B592" s="2"/>
+      <c r="B592" s="20"/>
     </row>
     <row r="593">
-      <c r="B593" s="2"/>
+      <c r="B593" s="20"/>
     </row>
     <row r="594">
-      <c r="B594" s="2"/>
+      <c r="B594" s="20"/>
     </row>
     <row r="595">
-      <c r="B595" s="2"/>
+      <c r="B595" s="20"/>
     </row>
     <row r="596">
-      <c r="B596" s="2"/>
+      <c r="B596" s="20"/>
     </row>
     <row r="597">
-      <c r="B597" s="2"/>
+      <c r="B597" s="20"/>
     </row>
     <row r="598">
-      <c r="B598" s="2"/>
+      <c r="B598" s="20"/>
     </row>
     <row r="599">
-      <c r="B599" s="2"/>
+      <c r="B599" s="20"/>
     </row>
     <row r="600">
-      <c r="B600" s="2"/>
+      <c r="B600" s="20"/>
     </row>
     <row r="601">
-      <c r="B601" s="2"/>
+      <c r="B601" s="20"/>
     </row>
     <row r="602">
-      <c r="B602" s="2"/>
+      <c r="B602" s="20"/>
     </row>
     <row r="603">
-      <c r="B603" s="2"/>
+      <c r="B603" s="20"/>
     </row>
     <row r="604">
-      <c r="B604" s="2"/>
+      <c r="B604" s="20"/>
     </row>
     <row r="605">
-      <c r="B605" s="2"/>
+      <c r="B605" s="20"/>
     </row>
     <row r="606">
-      <c r="B606" s="2"/>
+      <c r="B606" s="20"/>
     </row>
     <row r="607">
-      <c r="B607" s="2"/>
+      <c r="B607" s="20"/>
     </row>
     <row r="608">
-      <c r="B608" s="2"/>
+      <c r="B608" s="20"/>
     </row>
     <row r="609">
-      <c r="B609" s="2"/>
+      <c r="B609" s="20"/>
     </row>
     <row r="610">
-      <c r="B610" s="2"/>
+      <c r="B610" s="20"/>
     </row>
     <row r="611">
-      <c r="B611" s="2"/>
+      <c r="B611" s="20"/>
     </row>
     <row r="612">
-      <c r="B612" s="2"/>
+      <c r="B612" s="20"/>
     </row>
     <row r="613">
-      <c r="B613" s="2"/>
+      <c r="B613" s="20"/>
     </row>
     <row r="614">
-      <c r="B614" s="2"/>
+      <c r="B614" s="20"/>
     </row>
     <row r="615">
-      <c r="B615" s="2"/>
+      <c r="B615" s="20"/>
     </row>
     <row r="616">
-      <c r="B616" s="2"/>
+      <c r="B616" s="20"/>
     </row>
     <row r="617">
-      <c r="B617" s="2"/>
+      <c r="B617" s="20"/>
     </row>
     <row r="618">
-      <c r="B618" s="2"/>
+      <c r="B618" s="20"/>
     </row>
     <row r="619">
-      <c r="B619" s="2"/>
+      <c r="B619" s="20"/>
     </row>
     <row r="620">
-      <c r="B620" s="2"/>
+      <c r="B620" s="20"/>
     </row>
     <row r="621">
-      <c r="B621" s="2"/>
+      <c r="B621" s="20"/>
     </row>
     <row r="622">
-      <c r="B622" s="2"/>
+      <c r="B622" s="20"/>
     </row>
     <row r="623">
-      <c r="B623" s="2"/>
+      <c r="B623" s="20"/>
     </row>
     <row r="624">
-      <c r="B624" s="2"/>
+      <c r="B624" s="20"/>
     </row>
     <row r="625">
-      <c r="B625" s="2"/>
+      <c r="B625" s="20"/>
     </row>
     <row r="626">
-      <c r="B626" s="2"/>
+      <c r="B626" s="20"/>
     </row>
     <row r="627">
-      <c r="B627" s="2"/>
+      <c r="B627" s="20"/>
     </row>
     <row r="628">
-      <c r="B628" s="2"/>
+      <c r="B628" s="20"/>
     </row>
     <row r="629">
-      <c r="B629" s="2"/>
+      <c r="B629" s="20"/>
     </row>
     <row r="630">
-      <c r="B630" s="2"/>
+      <c r="B630" s="20"/>
     </row>
     <row r="631">
-      <c r="B631" s="2"/>
+      <c r="B631" s="20"/>
     </row>
     <row r="632">
-      <c r="B632" s="2"/>
+      <c r="B632" s="20"/>
     </row>
     <row r="633">
-      <c r="B633" s="2"/>
+      <c r="B633" s="20"/>
     </row>
     <row r="634">
-      <c r="B634" s="2"/>
+      <c r="B634" s="20"/>
     </row>
     <row r="635">
-      <c r="B635" s="2"/>
+      <c r="B635" s="20"/>
     </row>
     <row r="636">
-      <c r="B636" s="2"/>
+      <c r="B636" s="20"/>
     </row>
     <row r="637">
-      <c r="B637" s="2"/>
+      <c r="B637" s="20"/>
     </row>
     <row r="638">
-      <c r="B638" s="2"/>
+      <c r="B638" s="20"/>
     </row>
     <row r="639">
-      <c r="B639" s="2"/>
+      <c r="B639" s="20"/>
     </row>
     <row r="640">
-      <c r="B640" s="2"/>
+      <c r="B640" s="20"/>
     </row>
     <row r="641">
-      <c r="B641" s="2"/>
+      <c r="B641" s="20"/>
     </row>
     <row r="642">
-      <c r="B642" s="2"/>
+      <c r="B642" s="20"/>
     </row>
     <row r="643">
-      <c r="B643" s="2"/>
+      <c r="B643" s="20"/>
     </row>
     <row r="644">
-      <c r="B644" s="2"/>
+      <c r="B644" s="20"/>
     </row>
     <row r="645">
-      <c r="B645" s="2"/>
+      <c r="B645" s="20"/>
     </row>
     <row r="646">
-      <c r="B646" s="2"/>
+      <c r="B646" s="20"/>
     </row>
     <row r="647">
-      <c r="B647" s="2"/>
+      <c r="B647" s="20"/>
     </row>
     <row r="648">
-      <c r="B648" s="2"/>
+      <c r="B648" s="20"/>
     </row>
     <row r="649">
-      <c r="B649" s="2"/>
+      <c r="B649" s="20"/>
     </row>
     <row r="650">
-      <c r="B650" s="2"/>
+      <c r="B650" s="20"/>
     </row>
     <row r="651">
-      <c r="B651" s="2"/>
+      <c r="B651" s="20"/>
     </row>
     <row r="652">
-      <c r="B652" s="2"/>
+      <c r="B652" s="20"/>
     </row>
     <row r="653">
-      <c r="B653" s="2"/>
+      <c r="B653" s="20"/>
     </row>
     <row r="654">
-      <c r="B654" s="2"/>
+      <c r="B654" s="20"/>
     </row>
     <row r="655">
-      <c r="B655" s="2"/>
+      <c r="B655" s="20"/>
     </row>
     <row r="656">
-      <c r="B656" s="2"/>
+      <c r="B656" s="20"/>
     </row>
     <row r="657">
-      <c r="B657" s="2"/>
+      <c r="B657" s="20"/>
     </row>
     <row r="658">
-      <c r="B658" s="2"/>
+      <c r="B658" s="20"/>
     </row>
     <row r="659">
-      <c r="B659" s="2"/>
+      <c r="B659" s="20"/>
     </row>
     <row r="660">
-      <c r="B660" s="2"/>
+      <c r="B660" s="20"/>
     </row>
     <row r="661">
-      <c r="B661" s="2"/>
+      <c r="B661" s="20"/>
     </row>
     <row r="662">
-      <c r="B662" s="2"/>
+      <c r="B662" s="20"/>
     </row>
     <row r="663">
-      <c r="B663" s="2"/>
+      <c r="B663" s="20"/>
     </row>
     <row r="664">
-      <c r="B664" s="2"/>
+      <c r="B664" s="20"/>
     </row>
     <row r="665">
-      <c r="B665" s="2"/>
+      <c r="B665" s="20"/>
     </row>
     <row r="666">
-      <c r="B666" s="2"/>
+      <c r="B666" s="20"/>
     </row>
     <row r="667">
-      <c r="B667" s="2"/>
+      <c r="B667" s="20"/>
     </row>
     <row r="668">
-      <c r="B668" s="2"/>
+      <c r="B668" s="20"/>
     </row>
     <row r="669">
-      <c r="B669" s="2"/>
+      <c r="B669" s="20"/>
     </row>
     <row r="670">
-      <c r="B670" s="2"/>
+      <c r="B670" s="20"/>
     </row>
     <row r="671">
-      <c r="B671" s="2"/>
+      <c r="B671" s="20"/>
     </row>
     <row r="672">
-      <c r="B672" s="2"/>
+      <c r="B672" s="20"/>
     </row>
     <row r="673">
-      <c r="B673" s="2"/>
+      <c r="B673" s="20"/>
     </row>
     <row r="674">
-      <c r="B674" s="2"/>
+      <c r="B674" s="20"/>
     </row>
     <row r="675">
-      <c r="B675" s="2"/>
+      <c r="B675" s="20"/>
     </row>
     <row r="676">
-      <c r="B676" s="2"/>
+      <c r="B676" s="20"/>
     </row>
     <row r="677">
-      <c r="B677" s="2"/>
+      <c r="B677" s="20"/>
     </row>
     <row r="678">
-      <c r="B678" s="2"/>
+      <c r="B678" s="20"/>
     </row>
     <row r="679">
-      <c r="B679" s="2"/>
+      <c r="B679" s="20"/>
     </row>
     <row r="680">
-      <c r="B680" s="2"/>
+      <c r="B680" s="20"/>
     </row>
     <row r="681">
-      <c r="B681" s="2"/>
+      <c r="B681" s="20"/>
     </row>
     <row r="682">
-      <c r="B682" s="2"/>
+      <c r="B682" s="20"/>
     </row>
     <row r="683">
-      <c r="B683" s="2"/>
+      <c r="B683" s="20"/>
     </row>
     <row r="684">
-      <c r="B684" s="2"/>
+      <c r="B684" s="20"/>
     </row>
     <row r="685">
-      <c r="B685" s="2"/>
+      <c r="B685" s="20"/>
     </row>
     <row r="686">
-      <c r="B686" s="2"/>
+      <c r="B686" s="20"/>
     </row>
     <row r="687">
-      <c r="B687" s="2"/>
+      <c r="B687" s="20"/>
     </row>
     <row r="688">
-      <c r="B688" s="2"/>
+      <c r="B688" s="20"/>
     </row>
     <row r="689">
-      <c r="B689" s="2"/>
+      <c r="B689" s="20"/>
     </row>
     <row r="690">
-      <c r="B690" s="2"/>
+      <c r="B690" s="20"/>
     </row>
     <row r="691">
-      <c r="B691" s="2"/>
+      <c r="B691" s="20"/>
     </row>
     <row r="692">
-      <c r="B692" s="2"/>
+      <c r="B692" s="20"/>
     </row>
     <row r="693">
-      <c r="B693" s="2"/>
+      <c r="B693" s="20"/>
     </row>
     <row r="694">
-      <c r="B694" s="2"/>
+      <c r="B694" s="20"/>
     </row>
     <row r="695">
-      <c r="B695" s="2"/>
+      <c r="B695" s="20"/>
     </row>
     <row r="696">
-      <c r="B696" s="2"/>
+      <c r="B696" s="20"/>
     </row>
     <row r="697">
-      <c r="B697" s="2"/>
+      <c r="B697" s="20"/>
     </row>
     <row r="698">
-      <c r="B698" s="2"/>
+      <c r="B698" s="20"/>
     </row>
     <row r="699">
-      <c r="B699" s="2"/>
+      <c r="B699" s="20"/>
     </row>
     <row r="700">
-      <c r="B700" s="2"/>
+      <c r="B700" s="20"/>
     </row>
     <row r="701">
-      <c r="B701" s="2"/>
+      <c r="B701" s="20"/>
     </row>
     <row r="702">
-      <c r="B702" s="2"/>
+      <c r="B702" s="20"/>
     </row>
     <row r="703">
-      <c r="B703" s="2"/>
+      <c r="B703" s="20"/>
     </row>
     <row r="704">
-      <c r="B704" s="2"/>
+      <c r="B704" s="20"/>
     </row>
     <row r="705">
-      <c r="B705" s="2"/>
+      <c r="B705" s="20"/>
     </row>
     <row r="706">
-      <c r="B706" s="2"/>
+      <c r="B706" s="20"/>
     </row>
     <row r="707">
-      <c r="B707" s="2"/>
+      <c r="B707" s="20"/>
     </row>
     <row r="708">
-      <c r="B708" s="2"/>
+      <c r="B708" s="20"/>
     </row>
     <row r="709">
-      <c r="B709" s="2"/>
+      <c r="B709" s="20"/>
     </row>
     <row r="710">
-      <c r="B710" s="2"/>
+      <c r="B710" s="20"/>
     </row>
     <row r="711">
-      <c r="B711" s="2"/>
+      <c r="B711" s="20"/>
     </row>
     <row r="712">
-      <c r="B712" s="2"/>
+      <c r="B712" s="20"/>
     </row>
     <row r="713">
-      <c r="B713" s="2"/>
+      <c r="B713" s="20"/>
     </row>
     <row r="714">
-      <c r="B714" s="2"/>
+      <c r="B714" s="20"/>
     </row>
     <row r="715">
-      <c r="B715" s="2"/>
+      <c r="B715" s="20"/>
     </row>
     <row r="716">
-      <c r="B716" s="2"/>
+      <c r="B716" s="20"/>
     </row>
     <row r="717">
-      <c r="B717" s="2"/>
+      <c r="B717" s="20"/>
     </row>
     <row r="718">
-      <c r="B718" s="2"/>
+      <c r="B718" s="20"/>
     </row>
     <row r="719">
-      <c r="B719" s="2"/>
+      <c r="B719" s="20"/>
     </row>
     <row r="720">
-      <c r="B720" s="2"/>
+      <c r="B720" s="20"/>
     </row>
     <row r="721">
-      <c r="B721" s="2"/>
+      <c r="B721" s="20"/>
     </row>
     <row r="722">
-      <c r="B722" s="2"/>
+      <c r="B722" s="20"/>
     </row>
     <row r="723">
-      <c r="B723" s="2"/>
+      <c r="B723" s="20"/>
     </row>
     <row r="724">
-      <c r="B724" s="2"/>
+      <c r="B724" s="20"/>
     </row>
     <row r="725">
-      <c r="B725" s="2"/>
+      <c r="B725" s="20"/>
     </row>
     <row r="726">
-      <c r="B726" s="2"/>
+      <c r="B726" s="20"/>
     </row>
     <row r="727">
-      <c r="B727" s="2"/>
+      <c r="B727" s="20"/>
     </row>
     <row r="728">
-      <c r="B728" s="2"/>
+      <c r="B728" s="20"/>
     </row>
     <row r="729">
-      <c r="B729" s="2"/>
+      <c r="B729" s="20"/>
     </row>
     <row r="730">
-      <c r="B730" s="2"/>
+      <c r="B730" s="20"/>
     </row>
     <row r="731">
-      <c r="B731" s="2"/>
+      <c r="B731" s="20"/>
     </row>
     <row r="732">
-      <c r="B732" s="2"/>
+      <c r="B732" s="20"/>
     </row>
     <row r="733">
-      <c r="B733" s="2"/>
+      <c r="B733" s="20"/>
     </row>
     <row r="734">
-      <c r="B734" s="2"/>
+      <c r="B734" s="20"/>
     </row>
     <row r="735">
-      <c r="B735" s="2"/>
+      <c r="B735" s="20"/>
     </row>
     <row r="736">
-      <c r="B736" s="2"/>
+      <c r="B736" s="20"/>
     </row>
     <row r="737">
-      <c r="B737" s="2"/>
+      <c r="B737" s="20"/>
     </row>
     <row r="738">
-      <c r="B738" s="2"/>
+      <c r="B738" s="20"/>
     </row>
     <row r="739">
-      <c r="B739" s="2"/>
+      <c r="B739" s="20"/>
     </row>
     <row r="740">
-      <c r="B740" s="2"/>
+      <c r="B740" s="20"/>
     </row>
     <row r="741">
-      <c r="B741" s="2"/>
+      <c r="B741" s="20"/>
     </row>
     <row r="742">
-      <c r="B742" s="2"/>
+      <c r="B742" s="20"/>
     </row>
     <row r="743">
-      <c r="B743" s="2"/>
+      <c r="B743" s="20"/>
     </row>
     <row r="744">
-      <c r="B744" s="2"/>
+      <c r="B744" s="20"/>
     </row>
     <row r="745">
-      <c r="B745" s="2"/>
+      <c r="B745" s="20"/>
     </row>
     <row r="746">
-      <c r="B746" s="2"/>
+      <c r="B746" s="20"/>
     </row>
     <row r="747">
-      <c r="B747" s="2"/>
+      <c r="B747" s="20"/>
     </row>
     <row r="748">
-      <c r="B748" s="2"/>
+      <c r="B748" s="20"/>
     </row>
     <row r="749">
-      <c r="B749" s="2"/>
+      <c r="B749" s="20"/>
     </row>
     <row r="750">
-      <c r="B750" s="2"/>
+      <c r="B750" s="20"/>
     </row>
     <row r="751">
-      <c r="B751" s="2"/>
+      <c r="B751" s="20"/>
     </row>
     <row r="752">
-      <c r="B752" s="2"/>
+      <c r="B752" s="20"/>
     </row>
     <row r="753">
-      <c r="B753" s="2"/>
+      <c r="B753" s="20"/>
     </row>
     <row r="754">
-      <c r="B754" s="2"/>
+      <c r="B754" s="20"/>
     </row>
     <row r="755">
-      <c r="B755" s="2"/>
+      <c r="B755" s="20"/>
     </row>
     <row r="756">
-      <c r="B756" s="2"/>
+      <c r="B756" s="20"/>
     </row>
     <row r="757">
-      <c r="B757" s="2"/>
+      <c r="B757" s="20"/>
     </row>
     <row r="758">
-      <c r="B758" s="2"/>
+      <c r="B758" s="20"/>
     </row>
     <row r="759">
-      <c r="B759" s="2"/>
+      <c r="B759" s="20"/>
     </row>
     <row r="760">
-      <c r="B760" s="2"/>
+      <c r="B760" s="20"/>
     </row>
     <row r="761">
-      <c r="B761" s="2"/>
+      <c r="B761" s="20"/>
     </row>
     <row r="762">
-      <c r="B762" s="2"/>
+      <c r="B762" s="20"/>
     </row>
     <row r="763">
-      <c r="B763" s="2"/>
+      <c r="B763" s="20"/>
     </row>
     <row r="764">
-      <c r="B764" s="2"/>
+      <c r="B764" s="20"/>
     </row>
     <row r="765">
-      <c r="B765" s="2"/>
+      <c r="B765" s="20"/>
     </row>
     <row r="766">
-      <c r="B766" s="2"/>
+      <c r="B766" s="20"/>
     </row>
     <row r="767">
-      <c r="B767" s="2"/>
+      <c r="B767" s="20"/>
     </row>
     <row r="768">
-      <c r="B768" s="2"/>
+      <c r="B768" s="20"/>
     </row>
     <row r="769">
-      <c r="B769" s="2"/>
+      <c r="B769" s="20"/>
     </row>
     <row r="770">
-      <c r="B770" s="2"/>
+      <c r="B770" s="20"/>
     </row>
     <row r="771">
-      <c r="B771" s="2"/>
+      <c r="B771" s="20"/>
     </row>
     <row r="772">
-      <c r="B772" s="2"/>
+      <c r="B772" s="20"/>
     </row>
     <row r="773">
-      <c r="B773" s="2"/>
+      <c r="B773" s="20"/>
     </row>
     <row r="774">
-      <c r="B774" s="2"/>
+      <c r="B774" s="20"/>
     </row>
     <row r="775">
-      <c r="B775" s="2"/>
+      <c r="B775" s="20"/>
     </row>
     <row r="776">
-      <c r="B776" s="2"/>
+      <c r="B776" s="20"/>
     </row>
     <row r="777">
-      <c r="B777" s="2"/>
+      <c r="B777" s="20"/>
     </row>
     <row r="778">
-      <c r="B778" s="2"/>
+      <c r="B778" s="20"/>
     </row>
     <row r="779">
-      <c r="B779" s="2"/>
+      <c r="B779" s="20"/>
     </row>
     <row r="780">
-      <c r="B780" s="2"/>
+      <c r="B780" s="20"/>
     </row>
     <row r="781">
-      <c r="B781" s="2"/>
+      <c r="B781" s="20"/>
     </row>
     <row r="782">
-      <c r="B782" s="2"/>
+      <c r="B782" s="20"/>
     </row>
     <row r="783">
-      <c r="B783" s="2"/>
+      <c r="B783" s="20"/>
     </row>
     <row r="784">
-      <c r="B784" s="2"/>
+      <c r="B784" s="20"/>
     </row>
     <row r="785">
-      <c r="B785" s="2"/>
+      <c r="B785" s="20"/>
     </row>
     <row r="786">
-      <c r="B786" s="2"/>
+      <c r="B786" s="20"/>
     </row>
     <row r="787">
-      <c r="B787" s="2"/>
+      <c r="B787" s="20"/>
     </row>
     <row r="788">
-      <c r="B788" s="2"/>
+      <c r="B788" s="20"/>
     </row>
     <row r="789">
-      <c r="B789" s="2"/>
+      <c r="B789" s="20"/>
     </row>
     <row r="790">
-      <c r="B790" s="2"/>
+      <c r="B790" s="20"/>
     </row>
     <row r="791">
-      <c r="B791" s="2"/>
+      <c r="B791" s="20"/>
     </row>
     <row r="792">
-      <c r="B792" s="2"/>
+      <c r="B792" s="20"/>
     </row>
     <row r="793">
-      <c r="B793" s="2"/>
+      <c r="B793" s="20"/>
     </row>
     <row r="794">
-      <c r="B794" s="2"/>
+      <c r="B794" s="20"/>
     </row>
     <row r="795">
-      <c r="B795" s="2"/>
+      <c r="B795" s="20"/>
     </row>
     <row r="796">
-      <c r="B796" s="2"/>
+      <c r="B796" s="20"/>
     </row>
     <row r="797">
-      <c r="B797" s="2"/>
+      <c r="B797" s="20"/>
     </row>
     <row r="798">
-      <c r="B798" s="2"/>
+      <c r="B798" s="20"/>
     </row>
     <row r="799">
-      <c r="B799" s="2"/>
+      <c r="B799" s="20"/>
     </row>
     <row r="800">
-      <c r="B800" s="2"/>
+      <c r="B800" s="20"/>
     </row>
     <row r="801">
-      <c r="B801" s="2"/>
+      <c r="B801" s="20"/>
     </row>
     <row r="802">
-      <c r="B802" s="2"/>
+      <c r="B802" s="20"/>
     </row>
     <row r="803">
-      <c r="B803" s="2"/>
+      <c r="B803" s="20"/>
     </row>
     <row r="804">
-      <c r="B804" s="2"/>
+      <c r="B804" s="20"/>
     </row>
     <row r="805">
-      <c r="B805" s="2"/>
+      <c r="B805" s="20"/>
     </row>
     <row r="806">
-      <c r="B806" s="2"/>
+      <c r="B806" s="20"/>
     </row>
     <row r="807">
-      <c r="B807" s="2"/>
+      <c r="B807" s="20"/>
     </row>
     <row r="808">
-      <c r="B808" s="2"/>
+      <c r="B808" s="20"/>
     </row>
     <row r="809">
-      <c r="B809" s="2"/>
+      <c r="B809" s="20"/>
     </row>
     <row r="810">
-      <c r="B810" s="2"/>
+      <c r="B810" s="20"/>
     </row>
     <row r="811">
-      <c r="B811" s="2"/>
+      <c r="B811" s="20"/>
     </row>
     <row r="812">
-      <c r="B812" s="2"/>
+      <c r="B812" s="20"/>
     </row>
     <row r="813">
-      <c r="B813" s="2"/>
+      <c r="B813" s="20"/>
     </row>
     <row r="814">
-      <c r="B814" s="2"/>
+      <c r="B814" s="20"/>
     </row>
     <row r="815">
-      <c r="B815" s="2"/>
+      <c r="B815" s="20"/>
     </row>
     <row r="816">
-      <c r="B816" s="2"/>
+      <c r="B816" s="20"/>
     </row>
     <row r="817">
-      <c r="B817" s="2"/>
+      <c r="B817" s="20"/>
     </row>
     <row r="818">
-      <c r="B818" s="2"/>
+      <c r="B818" s="20"/>
     </row>
     <row r="819">
-      <c r="B819" s="2"/>
+      <c r="B819" s="20"/>
     </row>
     <row r="820">
-      <c r="B820" s="2"/>
+      <c r="B820" s="20"/>
     </row>
     <row r="821">
-      <c r="B821" s="2"/>
+      <c r="B821" s="20"/>
     </row>
     <row r="822">
-      <c r="B822" s="2"/>
+      <c r="B822" s="20"/>
     </row>
     <row r="823">
-      <c r="B823" s="2"/>
+      <c r="B823" s="20"/>
     </row>
     <row r="824">
-      <c r="B824" s="2"/>
+      <c r="B824" s="20"/>
     </row>
     <row r="825">
-      <c r="B825" s="2"/>
+      <c r="B825" s="20"/>
     </row>
     <row r="826">
-      <c r="B826" s="2"/>
+      <c r="B826" s="20"/>
     </row>
     <row r="827">
-      <c r="B827" s="2"/>
+      <c r="B827" s="20"/>
     </row>
     <row r="828">
-      <c r="B828" s="2"/>
+      <c r="B828" s="20"/>
     </row>
     <row r="829">
-      <c r="B829" s="2"/>
+      <c r="B829" s="20"/>
     </row>
     <row r="830">
-      <c r="B830" s="2"/>
+      <c r="B830" s="20"/>
     </row>
     <row r="831">
-      <c r="B831" s="2"/>
+      <c r="B831" s="20"/>
     </row>
     <row r="832">
-      <c r="B832" s="2"/>
+      <c r="B832" s="20"/>
     </row>
     <row r="833">
-      <c r="B833" s="2"/>
+      <c r="B833" s="20"/>
     </row>
     <row r="834">
-      <c r="B834" s="2"/>
+      <c r="B834" s="20"/>
     </row>
     <row r="835">
-      <c r="B835" s="2"/>
+      <c r="B835" s="20"/>
     </row>
     <row r="836">
-      <c r="B836" s="2"/>
+      <c r="B836" s="20"/>
     </row>
     <row r="837">
-      <c r="B837" s="2"/>
+      <c r="B837" s="20"/>
     </row>
     <row r="838">
-      <c r="B838" s="2"/>
+      <c r="B838" s="20"/>
     </row>
     <row r="839">
-      <c r="B839" s="2"/>
+      <c r="B839" s="20"/>
     </row>
     <row r="840">
-      <c r="B840" s="2"/>
+      <c r="B840" s="20"/>
     </row>
     <row r="841">
-      <c r="B841" s="2"/>
+      <c r="B841" s="20"/>
     </row>
     <row r="842">
-      <c r="B842" s="2"/>
+      <c r="B842" s="20"/>
     </row>
     <row r="843">
-      <c r="B843" s="2"/>
+      <c r="B843" s="20"/>
     </row>
     <row r="844">
-      <c r="B844" s="2"/>
+      <c r="B844" s="20"/>
     </row>
     <row r="845">
-      <c r="B845" s="2"/>
+      <c r="B845" s="20"/>
     </row>
     <row r="846">
-      <c r="B846" s="2"/>
+      <c r="B846" s="20"/>
     </row>
     <row r="847">
-      <c r="B847" s="2"/>
+      <c r="B847" s="20"/>
     </row>
     <row r="848">
-      <c r="B848" s="2"/>
+      <c r="B848" s="20"/>
     </row>
     <row r="849">
-      <c r="B849" s="2"/>
+      <c r="B849" s="20"/>
     </row>
     <row r="850">
-      <c r="B850" s="2"/>
+      <c r="B850" s="20"/>
     </row>
     <row r="851">
-      <c r="B851" s="2"/>
+      <c r="B851" s="20"/>
     </row>
     <row r="852">
-      <c r="B852" s="2"/>
+      <c r="B852" s="20"/>
     </row>
     <row r="853">
-      <c r="B853" s="2"/>
+      <c r="B853" s="20"/>
     </row>
     <row r="854">
-      <c r="B854" s="2"/>
+      <c r="B854" s="20"/>
     </row>
     <row r="855">
-      <c r="B855" s="2"/>
+      <c r="B855" s="20"/>
     </row>
     <row r="856">
-      <c r="B856" s="2"/>
+      <c r="B856" s="20"/>
     </row>
     <row r="857">
-      <c r="B857" s="2"/>
+      <c r="B857" s="20"/>
     </row>
     <row r="858">
-      <c r="B858" s="2"/>
+      <c r="B858" s="20"/>
     </row>
     <row r="859">
-      <c r="B859" s="2"/>
+      <c r="B859" s="20"/>
     </row>
     <row r="860">
-      <c r="B860" s="2"/>
+      <c r="B860" s="20"/>
     </row>
     <row r="861">
-      <c r="B861" s="2"/>
+      <c r="B861" s="20"/>
     </row>
     <row r="862">
-      <c r="B862" s="2"/>
+      <c r="B862" s="20"/>
     </row>
     <row r="863">
-      <c r="B863" s="2"/>
+      <c r="B863" s="20"/>
     </row>
     <row r="864">
-      <c r="B864" s="2"/>
+      <c r="B864" s="20"/>
     </row>
     <row r="865">
-      <c r="B865" s="2"/>
+      <c r="B865" s="20"/>
     </row>
     <row r="866">
-      <c r="B866" s="2"/>
+      <c r="B866" s="20"/>
     </row>
     <row r="867">
-      <c r="B867" s="2"/>
+      <c r="B867" s="20"/>
     </row>
     <row r="868">
-      <c r="B868" s="2"/>
+      <c r="B868" s="20"/>
     </row>
     <row r="869">
-      <c r="B869" s="2"/>
+      <c r="B869" s="20"/>
     </row>
     <row r="870">
-      <c r="B870" s="2"/>
+      <c r="B870" s="20"/>
     </row>
     <row r="871">
-      <c r="B871" s="2"/>
+      <c r="B871" s="20"/>
     </row>
     <row r="872">
-      <c r="B872" s="2"/>
+      <c r="B872" s="20"/>
     </row>
     <row r="873">
-      <c r="B873" s="2"/>
+      <c r="B873" s="20"/>
     </row>
     <row r="874">
-      <c r="B874" s="2"/>
+      <c r="B874" s="20"/>
     </row>
     <row r="875">
-      <c r="B875" s="2"/>
+      <c r="B875" s="20"/>
     </row>
     <row r="876">
-      <c r="B876" s="2"/>
+      <c r="B876" s="20"/>
     </row>
     <row r="877">
-      <c r="B877" s="2"/>
+      <c r="B877" s="20"/>
     </row>
     <row r="878">
-      <c r="B878" s="2"/>
+      <c r="B878" s="20"/>
     </row>
     <row r="879">
-      <c r="B879" s="2"/>
+      <c r="B879" s="20"/>
     </row>
     <row r="880">
-      <c r="B880" s="2"/>
+      <c r="B880" s="20"/>
     </row>
     <row r="881">
-      <c r="B881" s="2"/>
+      <c r="B881" s="20"/>
     </row>
     <row r="882">
-      <c r="B882" s="2"/>
+      <c r="B882" s="20"/>
     </row>
     <row r="883">
-      <c r="B883" s="2"/>
+      <c r="B883" s="20"/>
     </row>
     <row r="884">
-      <c r="B884" s="2"/>
+      <c r="B884" s="20"/>
     </row>
     <row r="885">
-      <c r="B885" s="2"/>
+      <c r="B885" s="20"/>
     </row>
     <row r="886">
-      <c r="B886" s="2"/>
+      <c r="B886" s="20"/>
     </row>
     <row r="887">
-      <c r="B887" s="2"/>
+      <c r="B887" s="20"/>
     </row>
     <row r="888">
-      <c r="B888" s="2"/>
+      <c r="B888" s="20"/>
     </row>
     <row r="889">
-      <c r="B889" s="2"/>
+      <c r="B889" s="20"/>
     </row>
     <row r="890">
-      <c r="B890" s="2"/>
+      <c r="B890" s="20"/>
     </row>
     <row r="891">
-      <c r="B891" s="2"/>
+      <c r="B891" s="20"/>
     </row>
     <row r="892">
-      <c r="B892" s="2"/>
+      <c r="B892" s="20"/>
     </row>
     <row r="893">
-      <c r="B893" s="2"/>
+      <c r="B893" s="20"/>
     </row>
     <row r="894">
-      <c r="B894" s="2"/>
+      <c r="B894" s="20"/>
     </row>
     <row r="895">
-      <c r="B895" s="2"/>
+      <c r="B895" s="20"/>
     </row>
     <row r="896">
-      <c r="B896" s="2"/>
+      <c r="B896" s="20"/>
     </row>
     <row r="897">
-      <c r="B897" s="2"/>
+      <c r="B897" s="20"/>
     </row>
     <row r="898">
-      <c r="B898" s="2"/>
+      <c r="B898" s="20"/>
     </row>
     <row r="899">
-      <c r="B899" s="2"/>
+      <c r="B899" s="20"/>
     </row>
     <row r="900">
-      <c r="B900" s="2"/>
+      <c r="B900" s="20"/>
     </row>
     <row r="901">
-      <c r="B901" s="2"/>
+      <c r="B901" s="20"/>
     </row>
     <row r="902">
-      <c r="B902" s="2"/>
+      <c r="B902" s="20"/>
     </row>
     <row r="903">
-      <c r="B903" s="2"/>
+      <c r="B903" s="20"/>
     </row>
     <row r="904">
-      <c r="B904" s="2"/>
+      <c r="B904" s="20"/>
     </row>
     <row r="905">
-      <c r="B905" s="2"/>
+      <c r="B905" s="20"/>
     </row>
     <row r="906">
-      <c r="B906" s="2"/>
+      <c r="B906" s="20"/>
     </row>
     <row r="907">
-      <c r="B907" s="2"/>
+      <c r="B907" s="20"/>
     </row>
     <row r="908">
-      <c r="B908" s="2"/>
+      <c r="B908" s="20"/>
     </row>
     <row r="909">
-      <c r="B909" s="2"/>
+      <c r="B909" s="20"/>
     </row>
     <row r="910">
-      <c r="B910" s="2"/>
+      <c r="B910" s="20"/>
     </row>
     <row r="911">
-      <c r="B911" s="2"/>
+      <c r="B911" s="20"/>
     </row>
     <row r="912">
-      <c r="B912" s="2"/>
+      <c r="B912" s="20"/>
     </row>
     <row r="913">
-      <c r="B913" s="2"/>
+      <c r="B913" s="20"/>
     </row>
     <row r="914">
-      <c r="B914" s="2"/>
+      <c r="B914" s="20"/>
     </row>
     <row r="915">
-      <c r="B915" s="2"/>
+      <c r="B915" s="20"/>
     </row>
     <row r="916">
-      <c r="B916" s="2"/>
+      <c r="B916" s="20"/>
     </row>
     <row r="917">
-      <c r="B917" s="2"/>
+      <c r="B917" s="20"/>
     </row>
     <row r="918">
-      <c r="B918" s="2"/>
+      <c r="B918" s="20"/>
     </row>
     <row r="919">
-      <c r="B919" s="2"/>
+      <c r="B919" s="20"/>
     </row>
     <row r="920">
-      <c r="B920" s="2"/>
+      <c r="B920" s="20"/>
     </row>
     <row r="921">
-      <c r="B921" s="2"/>
+      <c r="B921" s="20"/>
     </row>
     <row r="922">
-      <c r="B922" s="2"/>
+      <c r="B922" s="20"/>
     </row>
     <row r="923">
-      <c r="B923" s="2"/>
+      <c r="B923" s="20"/>
     </row>
     <row r="924">
-      <c r="B924" s="2"/>
+      <c r="B924" s="20"/>
     </row>
     <row r="925">
-      <c r="B925" s="2"/>
+      <c r="B925" s="20"/>
     </row>
     <row r="926">
-      <c r="B926" s="2"/>
+      <c r="B926" s="20"/>
     </row>
     <row r="927">
-      <c r="B927" s="2"/>
+      <c r="B927" s="20"/>
     </row>
     <row r="928">
-      <c r="B928" s="2"/>
+      <c r="B928" s="20"/>
     </row>
     <row r="929">
-      <c r="B929" s="2"/>
+      <c r="B929" s="20"/>
     </row>
     <row r="930">
-      <c r="B930" s="2"/>
+      <c r="B930" s="20"/>
     </row>
     <row r="931">
-      <c r="B931" s="2"/>
+      <c r="B931" s="20"/>
     </row>
     <row r="932">
-      <c r="B932" s="2"/>
+      <c r="B932" s="20"/>
     </row>
     <row r="933">
-      <c r="B933" s="2"/>
+      <c r="B933" s="20"/>
     </row>
     <row r="934">
-      <c r="B934" s="2"/>
+      <c r="B934" s="20"/>
     </row>
     <row r="935">
-      <c r="B935" s="2"/>
+      <c r="B935" s="20"/>
     </row>
     <row r="936">
-      <c r="B936" s="2"/>
+      <c r="B936" s="20"/>
     </row>
     <row r="937">
-      <c r="B937" s="2"/>
+      <c r="B937" s="20"/>
     </row>
     <row r="938">
-      <c r="B938" s="2"/>
+      <c r="B938" s="20"/>
     </row>
     <row r="939">
-      <c r="B939" s="2"/>
+      <c r="B939" s="20"/>
     </row>
     <row r="940">
-      <c r="B940" s="2"/>
+      <c r="B940" s="20"/>
     </row>
     <row r="941">
-      <c r="B941" s="2"/>
+      <c r="B941" s="20"/>
     </row>
     <row r="942">
-      <c r="B942" s="2"/>
+      <c r="B942" s="20"/>
     </row>
     <row r="943">
-      <c r="B943" s="2"/>
+      <c r="B943" s="20"/>
     </row>
     <row r="944">
-      <c r="B944" s="2"/>
+      <c r="B944" s="20"/>
     </row>
     <row r="945">
-      <c r="B945" s="2"/>
+      <c r="B945" s="20"/>
     </row>
     <row r="946">
-      <c r="B946" s="2"/>
+      <c r="B946" s="20"/>
     </row>
     <row r="947">
-      <c r="B947" s="2"/>
+      <c r="B947" s="20"/>
     </row>
     <row r="948">
-      <c r="B948" s="2"/>
+      <c r="B948" s="20"/>
     </row>
     <row r="949">
-      <c r="B949" s="2"/>
+      <c r="B949" s="20"/>
     </row>
     <row r="950">
-      <c r="B950" s="2"/>
+      <c r="B950" s="20"/>
     </row>
     <row r="951">
-      <c r="B951" s="2"/>
+      <c r="B951" s="20"/>
     </row>
     <row r="952">
-      <c r="B952" s="2"/>
+      <c r="B952" s="20"/>
     </row>
     <row r="953">
-      <c r="B953" s="2"/>
+      <c r="B953" s="20"/>
     </row>
     <row r="954">
-      <c r="B954" s="2"/>
+      <c r="B954" s="20"/>
     </row>
     <row r="955">
-      <c r="B955" s="2"/>
+      <c r="B955" s="20"/>
     </row>
     <row r="956">
-      <c r="B956" s="2"/>
+      <c r="B956" s="20"/>
     </row>
     <row r="957">
-      <c r="B957" s="2"/>
+      <c r="B957" s="20"/>
     </row>
     <row r="958">
-      <c r="B958" s="2"/>
+      <c r="B958" s="20"/>
     </row>
     <row r="959">
-      <c r="B959" s="2"/>
+      <c r="B959" s="20"/>
     </row>
     <row r="960">
-      <c r="B960" s="2"/>
+      <c r="B960" s="20"/>
     </row>
     <row r="961">
-      <c r="B961" s="2"/>
+      <c r="B961" s="20"/>
     </row>
     <row r="962">
-      <c r="B962" s="2"/>
+      <c r="B962" s="20"/>
     </row>
     <row r="963">
-      <c r="B963" s="2"/>
+      <c r="B963" s="20"/>
     </row>
     <row r="964">
-      <c r="B964" s="2"/>
+      <c r="B964" s="20"/>
     </row>
     <row r="965">
-      <c r="B965" s="2"/>
+      <c r="B965" s="20"/>
     </row>
     <row r="966">
-      <c r="B966" s="2"/>
+      <c r="B966" s="20"/>
     </row>
     <row r="967">
-      <c r="B967" s="2"/>
+      <c r="B967" s="20"/>
     </row>
     <row r="968">
-      <c r="B968" s="2"/>
+      <c r="B968" s="20"/>
     </row>
     <row r="969">
-      <c r="B969" s="2"/>
+      <c r="B969" s="20"/>
     </row>
     <row r="970">
-      <c r="B970" s="2"/>
+      <c r="B970" s="20"/>
     </row>
     <row r="971">
-      <c r="B971" s="2"/>
+      <c r="B971" s="20"/>
     </row>
     <row r="972">
-      <c r="B972" s="2"/>
+      <c r="B972" s="20"/>
     </row>
     <row r="973">
-      <c r="B973" s="2"/>
+      <c r="B973" s="20"/>
     </row>
     <row r="974">
-      <c r="B974" s="2"/>
+      <c r="B974" s="20"/>
     </row>
     <row r="975">
-      <c r="B975" s="2"/>
+      <c r="B975" s="20"/>
     </row>
     <row r="976">
-      <c r="B976" s="2"/>
+      <c r="B976" s="20"/>
     </row>
     <row r="977">
-      <c r="B977" s="2"/>
+      <c r="B977" s="20"/>
     </row>
     <row r="978">
-      <c r="B978" s="2"/>
+      <c r="B978" s="20"/>
     </row>
     <row r="979">
-      <c r="B979" s="2"/>
+      <c r="B979" s="20"/>
     </row>
     <row r="980">
-      <c r="B980" s="2"/>
+      <c r="B980" s="20"/>
     </row>
     <row r="981">
-      <c r="B981" s="2"/>
+      <c r="B981" s="20"/>
     </row>
     <row r="982">
-      <c r="B982" s="2"/>
+      <c r="B982" s="20"/>
     </row>
     <row r="983">
-      <c r="B983" s="2"/>
+      <c r="B983" s="20"/>
     </row>
     <row r="984">
-      <c r="B984" s="2"/>
+      <c r="B984" s="20"/>
     </row>
     <row r="985">
-      <c r="B985" s="2"/>
+      <c r="B985" s="20"/>
     </row>
     <row r="986">
-      <c r="B986" s="2"/>
+      <c r="B986" s="20"/>
     </row>
     <row r="987">
-      <c r="B987" s="2"/>
+      <c r="B987" s="20"/>
     </row>
     <row r="988">
-      <c r="B988" s="2"/>
+      <c r="B988" s="20"/>
     </row>
     <row r="989">
-      <c r="B989" s="2"/>
+      <c r="B989" s="20"/>
     </row>
     <row r="990">
-      <c r="B990" s="2"/>
+      <c r="B990" s="20"/>
     </row>
     <row r="991">
-      <c r="B991" s="2"/>
+      <c r="B991" s="20"/>
     </row>
     <row r="992">
-      <c r="B992" s="2"/>
+      <c r="B992" s="20"/>
     </row>
     <row r="993">
-      <c r="B993" s="2"/>
+      <c r="B993" s="20"/>
     </row>
     <row r="994">
-      <c r="B994" s="2"/>
+      <c r="B994" s="20"/>
     </row>
     <row r="995">
-      <c r="B995" s="2"/>
+      <c r="B995" s="20"/>
     </row>
     <row r="996">
-      <c r="B996" s="2"/>
+      <c r="B996" s="20"/>
     </row>
     <row r="997">
-      <c r="B997" s="2"/>
+      <c r="B997" s="20"/>
     </row>
     <row r="998">
-      <c r="B998" s="2"/>
+      <c r="B998" s="20"/>
     </row>
     <row r="999">
-      <c r="B999" s="2"/>
+      <c r="B999" s="20"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="2"/>
+      <c r="B1000" s="20"/>
     </row>
     <row r="1001">
-      <c r="B1001" s="2"/>
+      <c r="B1001" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F21:J25"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D13:H17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F21"/>
+    <hyperlink r:id="rId1" ref="D13"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Cobrança autônomo (Para copiar).xlsx
+++ b/Cobrança autônomo (Para copiar).xlsx
@@ -44,7 +44,7 @@
     <t>Quanto de lucro por diária ?</t>
   </si>
   <si>
-    <t>% por trabalho</t>
+    <t>% por diária</t>
   </si>
   <si>
     <t>Energia</t>
